--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="230">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>WeaponId</t>
+    <t>ActivityId</t>
   </si>
   <si>
     <t>Remark</t>
@@ -135,6 +135,9 @@
     <t>UpliftAngleRestore</t>
   </si>
   <si>
+    <t>FireEffect</t>
+  </si>
+  <si>
     <t>BulletId</t>
   </si>
   <si>
@@ -210,7 +213,7 @@
     <t>武器属性id</t>
   </si>
   <si>
-    <t>属性绑定武器的Id,如果是Ai使用的数据, 则填空字符串串</t>
+    <t>属性绑定武器的Id，这个id时ActivityBase表Id,如果是Ai使用的数据, 则填空字符串串</t>
   </si>
   <si>
     <t>备注</t>
@@ -330,7 +333,10 @@
     <t>开火后武器口角度恢复速度倍数</t>
   </si>
   <si>
-    <t>默认射出的子弹id</t>
+    <t>开火特效</t>
+  </si>
+  <si>
+    <t>默认射出的子弹，BulletBase表Id</t>
   </si>
   <si>
     <t>造成的伤害区间
@@ -467,7 +473,7 @@
     <t>[2,4]</t>
   </si>
   <si>
-    <t>bullet0001</t>
+    <t>res://prefab/effect/weapon/ShotFire.tscn</t>
   </si>
   <si>
     <t>[4]</t>
@@ -527,9 +533,6 @@
     <t>[5,6]</t>
   </si>
   <si>
-    <t>bullet0002</t>
-  </si>
-  <si>
     <t>[30]</t>
   </si>
   <si>
@@ -689,9 +692,6 @@
     <t>汤姆逊冲锋枪</t>
   </si>
   <si>
-    <t>bullet0003</t>
-  </si>
-  <si>
     <t>[15]</t>
   </si>
   <si>
@@ -711,6 +711,21 @@
   </si>
   <si>
     <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>weapon0008</t>
+  </si>
+  <si>
+    <t>激光手枪</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>1001</t>
   </si>
 </sst>
 </file>
@@ -723,13 +738,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1202,157 +1222,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1702,14 +1725,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BO21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AG8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1751,27 +1774,28 @@
     <col min="36" max="36" width="30.9833333333333" style="1" customWidth="1"/>
     <col min="37" max="37" width="22.9666666666667" style="1" customWidth="1"/>
     <col min="38" max="38" width="23.7" style="1" customWidth="1"/>
-    <col min="39" max="39" width="27.65" style="1" customWidth="1"/>
-    <col min="40" max="42" width="27.7833333333333" style="1" customWidth="1"/>
-    <col min="43" max="43" width="29.85" style="1" customWidth="1"/>
-    <col min="44" max="44" width="21.425" style="1" customWidth="1"/>
-    <col min="45" max="45" width="27.3083333333333" style="1" customWidth="1"/>
-    <col min="46" max="47" width="27.7833333333333" style="1" customWidth="1"/>
-    <col min="48" max="51" width="24.075" style="1" customWidth="1"/>
-    <col min="52" max="52" width="21.1083333333333" style="1" customWidth="1"/>
-    <col min="53" max="53" width="22.1" style="1" customWidth="1"/>
-    <col min="54" max="54" width="29.7583333333333" style="1" customWidth="1"/>
-    <col min="55" max="55" width="20.1166666666667" style="1" customWidth="1"/>
-    <col min="56" max="56" width="25.225" style="1" customWidth="1"/>
-    <col min="57" max="57" width="23.7" style="1" customWidth="1"/>
-    <col min="58" max="58" width="37.925" style="1" customWidth="1"/>
-    <col min="59" max="59" width="22.5916666666667" style="1" customWidth="1"/>
-    <col min="60" max="60" width="30.4666666666667" style="1" customWidth="1"/>
-    <col min="61" max="61" width="31.8583333333333" style="1" customWidth="1"/>
-    <col min="62" max="63" width="32.4666666666667" style="2" customWidth="1"/>
+    <col min="39" max="40" width="27.65" style="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7833333333333" style="2" customWidth="1"/>
+    <col min="42" max="43" width="27.7833333333333" style="1" customWidth="1"/>
+    <col min="44" max="44" width="29.85" style="1" customWidth="1"/>
+    <col min="45" max="45" width="21.425" style="1" customWidth="1"/>
+    <col min="46" max="46" width="27.3083333333333" style="1" customWidth="1"/>
+    <col min="47" max="48" width="27.7833333333333" style="1" customWidth="1"/>
+    <col min="49" max="52" width="24.075" style="1" customWidth="1"/>
+    <col min="53" max="53" width="21.1083333333333" style="1" customWidth="1"/>
+    <col min="54" max="54" width="22.1" style="1" customWidth="1"/>
+    <col min="55" max="55" width="29.7583333333333" style="1" customWidth="1"/>
+    <col min="56" max="56" width="20.1166666666667" style="1" customWidth="1"/>
+    <col min="57" max="57" width="25.225" style="1" customWidth="1"/>
+    <col min="58" max="58" width="23.7" style="1" customWidth="1"/>
+    <col min="59" max="59" width="37.925" style="1" customWidth="1"/>
+    <col min="60" max="60" width="22.5916666666667" style="1" customWidth="1"/>
+    <col min="61" max="61" width="30.4666666666667" style="1" customWidth="1"/>
+    <col min="62" max="62" width="31.8583333333333" style="1" customWidth="1"/>
+    <col min="63" max="64" width="32.4666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:63">
+    <row r="1" ht="31" customHeight="1" spans="1:64">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1916,7 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
@@ -1955,407 +1979,416 @@
       <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="BL1" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:66">
+    <row r="2" ht="114" customHeight="1" spans="1:67">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO2" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="AO2" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="AP2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:63">
+    <row r="3" ht="27" customHeight="1" spans="1:64">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="AO3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="AW3" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>131</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AZ3" s="1" t="s">
         <v>134</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="BK3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:63">
-      <c r="A4" s="3" t="s">
-        <v>138</v>
+    <row r="4" ht="57" customHeight="1" spans="1:64">
+      <c r="A4" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2409,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
@@ -2427,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -2451,7 +2484,7 @@
         <v>2</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AJ4" s="1">
         <v>35</v>
@@ -2465,68 +2498,71 @@
       <c r="AM4" s="1">
         <v>1</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>144</v>
+      <c r="AN4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AW4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="AV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX4" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AY4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BB4" s="1">
+      <c r="BA4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC4" s="1">
         <v>0.2</v>
       </c>
-      <c r="BE4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF4" s="1">
+      <c r="BF4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG4" s="1">
         <v>0.4</v>
       </c>
-      <c r="BJ4" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK4" s="6"/>
+      <c r="BK4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL4" s="6"/>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:63">
-      <c r="A5" s="3" t="s">
-        <v>156</v>
+    <row r="5" ht="57" customHeight="1" spans="1:64">
+      <c r="A5" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2580,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="V5" s="1">
         <v>3</v>
@@ -2598,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -2622,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AJ5" s="1">
         <v>35</v>
@@ -2636,71 +2672,74 @@
       <c r="AM5" s="1">
         <v>1</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>144</v>
+      <c r="AN5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AW5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="AV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX5" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AY5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BB5" s="1">
+      <c r="BA5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC5" s="1">
         <v>0.2</v>
       </c>
-      <c r="BE5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF5" s="1">
+      <c r="BF5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BJ5" s="6"/>
-      <c r="BK5" s="6" t="s">
-        <v>138</v>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:63">
-      <c r="A6" s="3" t="s">
-        <v>158</v>
+    <row r="6" ht="57" customHeight="1" spans="1:64">
+      <c r="A6" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2754,7 +2793,7 @@
         <v>0.6</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -2772,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -2796,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ6" s="1">
         <v>35</v>
@@ -2810,14 +2849,14 @@
       <c r="AM6" s="1">
         <v>1</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>144</v>
+      <c r="AN6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>165</v>
@@ -2831,59 +2870,62 @@
       <c r="AT6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AU6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV6" s="1">
         <v>0.2</v>
       </c>
-      <c r="AV6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>151</v>
+      <c r="AW6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1" t="s">
+      <c r="BB6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1" t="s">
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BF6" s="1">
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG6" s="1">
         <v>0.3</v>
       </c>
-      <c r="BG6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="6" t="s">
+      <c r="BH6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BK6" s="6"/>
+      <c r="BI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL6" s="6"/>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:63">
-      <c r="A7" s="3" t="s">
-        <v>174</v>
+    <row r="7" ht="57" customHeight="1" spans="1:64">
+      <c r="A7" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2937,7 +2979,7 @@
         <v>0.6</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V7" s="1">
         <v>3.5</v>
@@ -2955,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -2979,7 +3021,7 @@
         <v>4</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ7" s="1">
         <v>35</v>
@@ -2993,14 +3035,14 @@
       <c r="AM7" s="1">
         <v>1</v>
       </c>
-      <c r="AN7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>144</v>
+      <c r="AN7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>165</v>
@@ -3014,62 +3056,65 @@
       <c r="AT7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AU7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV7" s="1">
         <v>0.2</v>
       </c>
-      <c r="AV7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>151</v>
+      <c r="AW7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA7" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="BB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1" t="s">
+      <c r="BB7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1" t="s">
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BF7" s="1">
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BG7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6" t="s">
-        <v>156</v>
+      <c r="BH7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:63">
-      <c r="A8" s="3" t="s">
-        <v>175</v>
+    <row r="8" ht="57" customHeight="1" spans="1:64">
+      <c r="A8" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3123,7 +3168,7 @@
         <v>0.05</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
@@ -3141,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -3165,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ8" s="1">
         <v>35</v>
@@ -3179,68 +3224,71 @@
       <c r="AM8" s="1">
         <v>1</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>144</v>
+      <c r="AN8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU8" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="AV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX8" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AY8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BA8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="BB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="1" t="s">
+      <c r="BB8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BF8" s="1">
+      <c r="BC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG8" s="1">
         <v>0.43</v>
       </c>
-      <c r="BJ8" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="BK8" s="6"/>
+      <c r="BK8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL8" s="6"/>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:63">
-      <c r="A9" s="3" t="s">
-        <v>183</v>
+    <row r="9" ht="57" customHeight="1" spans="1:64">
+      <c r="A9" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3294,7 +3342,7 @@
         <v>0.05</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V9" s="1">
         <v>2</v>
@@ -3312,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -3336,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AJ9" s="1">
         <v>35</v>
@@ -3350,71 +3398,74 @@
       <c r="AM9" s="1">
         <v>1</v>
       </c>
-      <c r="AN9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>144</v>
+      <c r="AN9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU9" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX9" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AY9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BA9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA9" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1" t="s">
+      <c r="BB9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BF9" s="1">
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BJ9" s="6"/>
-      <c r="BK9" s="6" t="s">
-        <v>158</v>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:63">
-      <c r="A10" s="3" t="s">
-        <v>184</v>
+    <row r="10" ht="57" customHeight="1" spans="1:64">
+      <c r="A10" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3468,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -3486,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
@@ -3510,7 +3561,7 @@
         <v>7</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AJ10" s="1">
         <v>24</v>
@@ -3524,50 +3575,53 @@
       <c r="AM10" s="1">
         <v>1</v>
       </c>
-      <c r="AN10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>188</v>
+      <c r="AN10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AP10" s="1" t="s">
         <v>189</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="AS10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>151</v>
+      <c r="AT10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX10" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ10" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="BK10" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BK10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="BL10" s="6"/>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:63">
-      <c r="A11" s="3" t="s">
-        <v>192</v>
+    <row r="11" ht="57" customHeight="1" spans="1:64">
+      <c r="A11" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3621,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V11" s="1">
         <v>3</v>
@@ -3639,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB11" s="1">
         <v>0</v>
@@ -3663,7 +3717,7 @@
         <v>7</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AJ11" s="1">
         <v>24</v>
@@ -3677,53 +3731,56 @@
       <c r="AM11" s="1">
         <v>1</v>
       </c>
-      <c r="AN11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>188</v>
+      <c r="AN11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>189</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="AS11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AU11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>151</v>
+      <c r="AT11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ11" s="6"/>
-      <c r="BK11" s="6" t="s">
-        <v>174</v>
+        <v>153</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:63">
-      <c r="A12" s="3" t="s">
-        <v>193</v>
+    <row r="12" ht="57" customHeight="1" spans="1:64">
+      <c r="A12" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3777,7 +3834,7 @@
         <v>0.9</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -3795,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
@@ -3819,7 +3876,7 @@
         <v>5</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ12" s="1">
         <v>20</v>
@@ -3833,20 +3890,20 @@
       <c r="AM12" s="1">
         <v>1</v>
       </c>
-      <c r="AN12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>164</v>
+      <c r="AN12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="AS12" s="1" t="s">
         <v>199</v>
@@ -3854,53 +3911,56 @@
       <c r="AT12" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AU12" s="1">
+      <c r="AU12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV12" s="1">
         <v>0.2</v>
       </c>
-      <c r="AV12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="1" t="s">
-        <v>151</v>
+      <c r="AW12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX12" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA12" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="1" t="s">
+      <c r="BB12" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="BF12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="6" t="s">
+      <c r="BC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BK12" s="6"/>
+      <c r="BG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="BL12" s="6"/>
     </row>
-    <row r="13" ht="57" customHeight="1" spans="1:63">
-      <c r="A13" s="3" t="s">
-        <v>204</v>
+    <row r="13" ht="57" customHeight="1" spans="1:64">
+      <c r="A13" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3954,7 +4014,7 @@
         <v>0.9</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V13" s="1">
         <v>5</v>
@@ -3972,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -3996,7 +4056,7 @@
         <v>5</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ13" s="1">
         <v>20</v>
@@ -4010,20 +4070,20 @@
       <c r="AM13" s="1">
         <v>1</v>
       </c>
-      <c r="AN13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO13" s="1" t="s">
-        <v>164</v>
+      <c r="AN13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="AS13" s="1" t="s">
         <v>199</v>
@@ -4031,55 +4091,58 @@
       <c r="AT13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AU13" s="1">
+      <c r="AU13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV13" s="1">
         <v>0.2</v>
       </c>
-      <c r="AV13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="1" t="s">
-        <v>151</v>
+      <c r="AW13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX13" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BA13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="1" t="s">
+      <c r="BB13" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="BF13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="6" t="s">
-        <v>175</v>
+      <c r="BC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:63">
-      <c r="A14" s="3" t="s">
-        <v>205</v>
+    <row r="14" ht="57" customHeight="1" spans="1:64">
+      <c r="A14" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4133,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
@@ -4151,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -4175,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AJ14" s="1">
         <v>35</v>
@@ -4189,68 +4252,71 @@
       <c r="AM14" s="1">
         <v>1</v>
       </c>
-      <c r="AN14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>157</v>
+      <c r="AN14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="AP14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AQ14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>151</v>
+      <c r="AV14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX14" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BA14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA14" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="BB14" s="1">
+      <c r="BB14" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC14" s="1">
         <v>0.2</v>
       </c>
-      <c r="BE14" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BF14" s="1">
+      <c r="BF14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BJ14" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="BK14" s="3"/>
+      <c r="BK14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL14" s="2"/>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:63">
-      <c r="A15" s="3" t="s">
-        <v>213</v>
+    <row r="15" ht="57" customHeight="1" spans="1:64">
+      <c r="A15" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4304,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="V15" s="1">
         <v>3.5</v>
@@ -4322,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -4346,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AJ15" s="1">
         <v>35</v>
@@ -4360,71 +4426,74 @@
       <c r="AM15" s="1">
         <v>1</v>
       </c>
-      <c r="AN15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>157</v>
+      <c r="AN15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="AP15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AQ15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>151</v>
+      <c r="AV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX15" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ15" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BA15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA15" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="BB15" s="1">
+      <c r="BB15" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC15" s="1">
         <v>0.2</v>
       </c>
-      <c r="BE15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BF15" s="1">
+      <c r="BF15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BJ15" s="6"/>
-      <c r="BK15" s="6" t="s">
-        <v>174</v>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:63">
-      <c r="A16" s="3" t="s">
-        <v>214</v>
+    <row r="16" ht="57" customHeight="1" spans="1:64">
+      <c r="A16" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4478,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -4496,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB16" s="1">
         <v>0</v>
@@ -4520,7 +4589,7 @@
         <v>2</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AJ16" s="1">
         <v>35</v>
@@ -4534,68 +4603,71 @@
       <c r="AM16" s="1">
         <v>1</v>
       </c>
-      <c r="AN16" s="1" t="s">
+      <c r="AN16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BB16" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BK16" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL16" s="2"/>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:64">
+      <c r="A17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AZ16" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BA16" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="BB16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BE16" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF16" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="BJ16" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="BK16" s="3"/>
-    </row>
-    <row r="17" ht="57" customHeight="1" spans="1:63">
-      <c r="A17" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4649,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="V17" s="1">
         <v>5</v>
@@ -4667,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
@@ -4691,7 +4763,7 @@
         <v>2</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AJ17" s="1">
         <v>35</v>
@@ -4705,61 +4777,227 @@
       <c r="AM17" s="1">
         <v>1</v>
       </c>
-      <c r="AN17" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>157</v>
+      <c r="AN17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="AP17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AQ17" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="AR17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS17" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="AS17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AT17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="1" t="s">
+      <c r="AU17" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="AV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX17" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AY17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BB17" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BF17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" ht="57" customHeight="1" spans="1:64">
+      <c r="A18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="1">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>240</v>
+      </c>
+      <c r="I18" s="1">
+        <v>120</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>300</v>
+      </c>
+      <c r="X18" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AZ17" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BA17" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="BB17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BE17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF17" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="AX18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="5"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+    </row>
+    <row r="19" spans="40:40">
+      <c r="AN19" s="2"/>
+    </row>
+    <row r="20" spans="40:40">
+      <c r="AN20" s="2"/>
+    </row>
+    <row r="21" spans="40:40">
+      <c r="AN21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="231">
   <si>
     <t>Id</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>[2,3]</t>
+  </si>
+  <si>
+    <t>res://prefab/effect/weapon/ShotFire2.tscn</t>
   </si>
   <si>
     <t>1001</t>
@@ -1732,7 +1735,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN9" sqref="AN9"/>
+      <selection pane="bottomRight" activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4954,9 +4957,11 @@
       <c r="AM18" s="1">
         <v>1</v>
       </c>
-      <c r="AN18" s="2"/>
+      <c r="AN18" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="AO18" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AP18" s="1" t="s">
         <v>163</v>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="235">
   <si>
     <t>Id</t>
   </si>
@@ -391,7 +391,7 @@
     <t>开始换弹音效延时时间</t>
   </si>
   <si>
-    <t>换弹音效</t>
+    <t>换弹音效，单独装弹时也会出发</t>
   </si>
   <si>
     <t>换弹音效延时时间</t>
@@ -729,6 +729,18 @@
   </si>
   <si>
     <t>1001</t>
+  </si>
+  <si>
+    <t>shooting0010</t>
+  </si>
+  <si>
+    <t>reloadBegin0011</t>
+  </si>
+  <si>
+    <t>reloadFinish0003</t>
+  </si>
+  <si>
+    <t>0016</t>
   </si>
 </sst>
 </file>
@@ -1731,11 +1743,11 @@
   <dimension ref="A1:BO21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AG8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="BD10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN18" sqref="AN18"/>
+      <selection pane="bottomRight" activeCell="BL18" sqref="BL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3348,7 +3360,7 @@
         <v>143</v>
       </c>
       <c r="V9" s="1">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="W9" s="1">
         <v>300</v>
@@ -4727,7 +4739,7 @@
         <v>153</v>
       </c>
       <c r="V17" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="W17" s="1">
         <v>200</v>
@@ -4990,13 +5002,193 @@
       <c r="AZ18" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="5"/>
-      <c r="BK18" s="2"/>
+      <c r="BA18" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB18" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BK18" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="BL18" s="2"/>
     </row>
-    <row r="19" spans="40:40">
-      <c r="AN19" s="2"/>
+    <row r="19" ht="57" customHeight="1" spans="1:64">
+      <c r="A19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="1">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>240</v>
+      </c>
+      <c r="I19" s="1">
+        <v>120</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V19" s="1">
+        <v>4</v>
+      </c>
+      <c r="W19" s="1">
+        <v>300</v>
+      </c>
+      <c r="X19" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>13</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA19" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB19" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="20" spans="40:40">
       <c r="AN20" s="2"/>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="238">
   <si>
     <t>Id</t>
   </si>
@@ -741,6 +741,15 @@
   </si>
   <si>
     <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>weapon0009</t>
+  </si>
+  <si>
+    <t>榴弹发射器</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1756,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BL18" sqref="BL18"/>
+      <selection pane="bottomRight" activeCell="BI17" sqref="BI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5190,8 +5199,176 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="40:40">
-      <c r="AN20" s="2"/>
+    <row r="20" ht="57" customHeight="1" spans="1:64">
+      <c r="A20" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>240</v>
+      </c>
+      <c r="I20" s="1">
+        <v>120</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>300</v>
+      </c>
+      <c r="X20" s="1">
+        <v>300</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>25</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>13</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA20" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB20" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BG20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BK20" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BL20" s="2"/>
     </row>
     <row r="21" spans="40:40">
       <c r="AN21" s="2"/>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="210">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>ActivityId</t>
+    <t>Activity</t>
   </si>
   <si>
     <t>Remark</t>
@@ -138,25 +138,10 @@
     <t>FireEffect</t>
   </si>
   <si>
-    <t>BulletId</t>
-  </si>
-  <si>
-    <t>HarmRange</t>
-  </si>
-  <si>
-    <t>RepelRnage</t>
-  </si>
-  <si>
-    <t>BulletDeviationAngleRange</t>
-  </si>
-  <si>
-    <t>BulletSpeedRange</t>
-  </si>
-  <si>
-    <t>BulletDistanceRange</t>
-  </si>
-  <si>
-    <t>ShellId</t>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>Shell</t>
   </si>
   <si>
     <t>ThrowShellDelayTime</t>
@@ -336,36 +321,14 @@
     <t>开火特效</t>
   </si>
   <si>
-    <t>默认射出的子弹，BulletBase表Id</t>
-  </si>
-  <si>
-    <t>造成的伤害区间
-格式为[value]或者[min,max]</t>
-  </si>
-  <si>
-    <t>造成伤害后击退值区间
-如果发射子弹,则按每发子弹算击退
-格式为[value]或者[min,max]</t>
-  </si>
-  <si>
-    <t>子弹偏移角度区间
-用于设置子弹偏移朝向, 该属性和射半径效果类似, 但与其不同的是, 散射半径是用来控制枪口朝向的, 而该属性是控制子弹朝向的, 可用于制作霰弹枪子弹效果
-格式为[value]或者[min,max]</t>
-  </si>
-  <si>
-    <t>子弹初速度区间
-格式为[value]或者[min,max]</t>
-  </si>
-  <si>
-    <t>子弹飞行距离区间
-格式为[value]或者[min,max]</t>
+    <t>默认射出的子弹</t>
   </si>
   <si>
     <t>默认抛出的弹壳</t>
   </si>
   <si>
     <t>投抛弹壳的延时时间, 在射击或者上膛后会触发抛弹壳效果
-如果为负数, 则不自动抛弹</t>
+如果为0, 则不自动抛弹</t>
   </si>
   <si>
     <t>投抛状态下物体碰撞器大小</t>
@@ -425,6 +388,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>$ActivityBase</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
@@ -443,6 +409,9 @@
     <t>[float]</t>
   </si>
   <si>
+    <t>$BulletBase</t>
+  </si>
+  <si>
     <t>vector2</t>
   </si>
   <si>
@@ -476,21 +445,6 @@
     <t>res://prefab/effect/weapon/ShotFire.tscn</t>
   </si>
   <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[20]</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[320,350]</t>
-  </si>
-  <si>
-    <t>[300,400]</t>
-  </si>
-  <si>
     <t>shell0001</t>
   </si>
   <si>
@@ -533,18 +487,6 @@
     <t>[5,6]</t>
   </si>
   <si>
-    <t>[30]</t>
-  </si>
-  <si>
-    <t>[-10,10]</t>
-  </si>
-  <si>
-    <t>[280,380]</t>
-  </si>
-  <si>
-    <t>[200,250]</t>
-  </si>
-  <si>
     <t>shell0002</t>
   </si>
   <si>
@@ -578,9 +520,6 @@
     <t>[3,5]</t>
   </si>
   <si>
-    <t>[250,300]</t>
-  </si>
-  <si>
     <t>shooting0004</t>
   </si>
   <si>
@@ -605,16 +544,7 @@
     <t>[-8]</t>
   </si>
   <si>
-    <t>[25]</t>
-  </si>
-  <si>
-    <t>[150]</t>
-  </si>
-  <si>
-    <t>[350]</t>
-  </si>
-  <si>
-    <t>[35]</t>
+    <t>2001</t>
   </si>
   <si>
     <t>0008</t>
@@ -632,15 +562,6 @@
     <t>[5,7]</t>
   </si>
   <si>
-    <t>[250]</t>
-  </si>
-  <si>
-    <t>[600,620]</t>
-  </si>
-  <si>
-    <t>[700,900]</t>
-  </si>
-  <si>
     <t>shell0003</t>
   </si>
   <si>
@@ -668,9 +589,6 @@
     <t>[1,2]</t>
   </si>
   <si>
-    <t>[320,340]</t>
-  </si>
-  <si>
     <t>shooting0002</t>
   </si>
   <si>
@@ -690,15 +608,6 @@
   </si>
   <si>
     <t>汤姆逊冲锋枪</t>
-  </si>
-  <si>
-    <t>[15]</t>
-  </si>
-  <si>
-    <t>[300,330]</t>
-  </si>
-  <si>
-    <t>[270,360]</t>
   </si>
   <si>
     <t>shooting0007</t>
@@ -1395,11 +1304,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1749,77 +1658,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BO21"/>
+  <dimension ref="A1:BJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="BD10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BI17" sqref="BI17"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.225" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.2272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6818181818182" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.2166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.8916666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1833333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.05" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.2166666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.475" style="1" customWidth="1"/>
-    <col min="14" max="14" width="34.2833333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6416666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="17" max="18" width="25.075" style="1" customWidth="1"/>
-    <col min="19" max="19" width="25.225" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.6416666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.8916666666667" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.9583333333333" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.1083333333333" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.7833333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.5416666666667" style="1" customWidth="1"/>
-    <col min="28" max="28" width="20.4666666666667" style="1" customWidth="1"/>
-    <col min="29" max="29" width="26.6583333333333" style="1" customWidth="1"/>
-    <col min="30" max="30" width="26.5083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1090909090909" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8909090909091" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7818181818182" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.0454545454545" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.2181818181818" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.4727272727273" style="1" customWidth="1"/>
+    <col min="14" max="14" width="34.2818181818182" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6454545454545" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.6636363636364" style="1" customWidth="1"/>
+    <col min="17" max="18" width="25.0727272727273" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6454545454545" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.8909090909091" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.3363636363636" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.9545454545455" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23.1090909090909" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.7818181818182" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5454545454545" style="1" customWidth="1"/>
+    <col min="28" max="28" width="20.4636363636364" style="1" customWidth="1"/>
+    <col min="29" max="29" width="26.6545454545455" style="1" customWidth="1"/>
+    <col min="30" max="30" width="26.5090909090909" style="1" customWidth="1"/>
     <col min="31" max="31" width="29.2" style="1" customWidth="1"/>
     <col min="32" max="32" width="30" style="1" customWidth="1"/>
-    <col min="33" max="33" width="34.4083333333333" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7833333333333" style="1" customWidth="1"/>
+    <col min="33" max="33" width="34.4090909090909" style="1" customWidth="1"/>
+    <col min="34" max="34" width="17.7818181818182" style="1" customWidth="1"/>
     <col min="35" max="35" width="20" style="1" customWidth="1"/>
-    <col min="36" max="36" width="30.9833333333333" style="1" customWidth="1"/>
-    <col min="37" max="37" width="22.9666666666667" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.9818181818182" style="1" customWidth="1"/>
+    <col min="37" max="37" width="22.9636363636364" style="1" customWidth="1"/>
     <col min="38" max="38" width="23.7" style="1" customWidth="1"/>
-    <col min="39" max="40" width="27.65" style="1" customWidth="1"/>
-    <col min="41" max="41" width="27.7833333333333" style="2" customWidth="1"/>
-    <col min="42" max="43" width="27.7833333333333" style="1" customWidth="1"/>
-    <col min="44" max="44" width="29.85" style="1" customWidth="1"/>
-    <col min="45" max="45" width="21.425" style="1" customWidth="1"/>
-    <col min="46" max="46" width="27.3083333333333" style="1" customWidth="1"/>
-    <col min="47" max="48" width="27.7833333333333" style="1" customWidth="1"/>
-    <col min="49" max="52" width="24.075" style="1" customWidth="1"/>
-    <col min="53" max="53" width="21.1083333333333" style="1" customWidth="1"/>
-    <col min="54" max="54" width="22.1" style="1" customWidth="1"/>
-    <col min="55" max="55" width="29.7583333333333" style="1" customWidth="1"/>
-    <col min="56" max="56" width="20.1166666666667" style="1" customWidth="1"/>
-    <col min="57" max="57" width="25.225" style="1" customWidth="1"/>
-    <col min="58" max="58" width="23.7" style="1" customWidth="1"/>
-    <col min="59" max="59" width="37.925" style="1" customWidth="1"/>
-    <col min="60" max="60" width="22.5916666666667" style="1" customWidth="1"/>
-    <col min="61" max="61" width="30.4666666666667" style="1" customWidth="1"/>
-    <col min="62" max="62" width="31.8583333333333" style="1" customWidth="1"/>
-    <col min="63" max="64" width="32.4666666666667" style="3" customWidth="1"/>
+    <col min="39" max="40" width="27.6454545454545" style="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7818181818182" style="2" customWidth="1"/>
+    <col min="42" max="43" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="44" max="47" width="24.0727272727273" style="1" customWidth="1"/>
+    <col min="48" max="48" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="49" max="49" width="22.1" style="1" customWidth="1"/>
+    <col min="50" max="50" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="51" max="51" width="20.1181818181818" style="1" customWidth="1"/>
+    <col min="52" max="52" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="53" max="53" width="23.7" style="1" customWidth="1"/>
+    <col min="54" max="54" width="37.9272727272727" style="1" customWidth="1"/>
+    <col min="55" max="55" width="22.5909090909091" style="1" customWidth="1"/>
+    <col min="56" max="56" width="30.4636363636364" style="1" customWidth="1"/>
+    <col min="57" max="57" width="31.8545454545455" style="1" customWidth="1"/>
+    <col min="58" max="59" width="32.4636363636364" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:64">
+    <row r="1" ht="31" customHeight="1" spans="1:59">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,428 +1896,383 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+    </row>
+    <row r="2" ht="114" customHeight="1" spans="1:62">
+      <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:67">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+    <row r="3" ht="27" customHeight="1" spans="1:59">
+      <c r="A3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="AP3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:64">
-      <c r="A3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="BB3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AP3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="BD3" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="BE3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BF3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>139</v>
+      <c r="BF3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:64">
+    <row r="4" ht="57" customHeight="1" spans="1:59">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2466,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
@@ -2484,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -2508,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AJ4" s="1">
         <v>35</v>
@@ -2523,70 +2383,55 @@
         <v>1</v>
       </c>
       <c r="AN4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BF4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AO4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BK4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL4" s="6"/>
+      <c r="BG4" s="7"/>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:64">
+    <row r="5" ht="57" customHeight="1" spans="1:59">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2640,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="V5" s="1">
         <v>3</v>
@@ -2658,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -2682,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AJ5" s="1">
         <v>35</v>
@@ -2697,73 +2542,58 @@
         <v>1</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AO5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AP5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" ht="57" customHeight="1" spans="1:59">
+      <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BK5" s="6"/>
-      <c r="BL5" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" ht="57" customHeight="1" spans="1:64">
-      <c r="A6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2817,7 +2647,7 @@
         <v>0.6</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -2835,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -2859,7 +2689,7 @@
         <v>4</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="AJ6" s="1">
         <v>35</v>
@@ -2874,82 +2704,67 @@
         <v>1</v>
       </c>
       <c r="AN6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO6" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AP6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AP6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="BL6" s="6"/>
+      <c r="BG6" s="7"/>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:64">
+    <row r="7" ht="57" customHeight="1" spans="1:59">
       <c r="A7" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -3003,7 +2818,7 @@
         <v>0.6</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V7" s="1">
         <v>3.5</v>
@@ -3021,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -3045,7 +2860,7 @@
         <v>4</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="AJ7" s="1">
         <v>35</v>
@@ -3060,85 +2875,70 @@
         <v>1</v>
       </c>
       <c r="AN7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AO7" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="AP7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0.2</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
+      </c>
+      <c r="AS7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>0.2</v>
+        <v>141</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX7" s="1" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BG7" s="1">
+        <v>155</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BH7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="6"/>
-      <c r="BL7" s="6" t="s">
-        <v>158</v>
+      <c r="BC7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="7"/>
+      <c r="BG7" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:64">
+    <row r="8" ht="57" customHeight="1" spans="1:59">
       <c r="A8" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3192,7 +2992,7 @@
         <v>0.05</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
@@ -3210,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -3234,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="AJ8" s="1">
         <v>35</v>
@@ -3249,70 +3049,55 @@
         <v>1</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AO8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AP8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="AU8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG8" s="1">
+        <v>164</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB8" s="1">
         <v>0.43</v>
       </c>
-      <c r="BK8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="BL8" s="6"/>
+      <c r="BF8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG8" s="7"/>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:64">
+    <row r="9" ht="57" customHeight="1" spans="1:59">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3366,7 +3151,7 @@
         <v>0.05</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V9" s="1">
         <v>1.3</v>
@@ -3384,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -3408,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="AJ9" s="1">
         <v>35</v>
@@ -3423,73 +3208,58 @@
         <v>1</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AO9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AP9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AU9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="AR9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BK9" s="6"/>
-      <c r="BL9" s="6" t="s">
-        <v>160</v>
-      </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:64">
+    <row r="10" ht="57" customHeight="1" spans="1:59">
       <c r="A10" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3543,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -3561,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
@@ -3585,7 +3355,7 @@
         <v>7</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="AJ10" s="1">
         <v>24</v>
@@ -3599,53 +3369,36 @@
       <c r="AM10" s="1">
         <v>1</v>
       </c>
-      <c r="AN10" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="AN10" s="2"/>
       <c r="AO10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AP10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BK10" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL10" s="6"/>
+      <c r="AU10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG10" s="7"/>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:64">
+    <row r="11" ht="57" customHeight="1" spans="1:59">
       <c r="A11" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3699,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V11" s="1">
         <v>3</v>
@@ -3717,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB11" s="1">
         <v>0</v>
@@ -3741,7 +3494,7 @@
         <v>7</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="AJ11" s="1">
         <v>24</v>
@@ -3755,56 +3508,39 @@
       <c r="AM11" s="1">
         <v>1</v>
       </c>
-      <c r="AN11" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="AN11" s="2"/>
       <c r="AO11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AP11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BK11" s="6"/>
-      <c r="BL11" s="6" t="s">
+      <c r="AU11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" ht="57" customHeight="1" spans="1:59">
+      <c r="A12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="12" ht="57" customHeight="1" spans="1:64">
-      <c r="A12" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3858,7 +3594,7 @@
         <v>0.9</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -3876,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
@@ -3900,7 +3636,7 @@
         <v>5</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="AJ12" s="1">
         <v>20</v>
@@ -3915,76 +3651,61 @@
         <v>1</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AO12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AP12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="AU12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AW12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>0</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BB12" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="BC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BI12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL12" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG12" s="7"/>
     </row>
-    <row r="13" ht="57" customHeight="1" spans="1:64">
+    <row r="13" ht="57" customHeight="1" spans="1:59">
       <c r="A13" s="2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -4038,7 +3759,7 @@
         <v>0.9</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V13" s="1">
         <v>5</v>
@@ -4056,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -4080,7 +3801,7 @@
         <v>5</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="AJ13" s="1">
         <v>20</v>
@@ -4095,78 +3816,63 @@
         <v>1</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AO13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AP13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="AU13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AW13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>0</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BB13" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="BC13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BG13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BI13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:64">
+    <row r="14" ht="57" customHeight="1" spans="1:59">
       <c r="A14" s="2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4220,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
@@ -4238,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -4262,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="AJ14" s="1">
         <v>35</v>
@@ -4277,70 +3983,55 @@
         <v>1</v>
       </c>
       <c r="AN14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AO14" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="AP14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>210</v>
+        <v>139</v>
+      </c>
+      <c r="AS14" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BB14" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="BC14" s="1">
+        <v>141</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW14" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX14" s="1">
         <v>0.2</v>
       </c>
-      <c r="BF14" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BG14" s="1">
+      <c r="BA14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BK14" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL14" s="2"/>
+      <c r="BF14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG14" s="2"/>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:64">
+    <row r="15" ht="57" customHeight="1" spans="1:59">
       <c r="A15" s="2" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4394,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="V15" s="1">
         <v>3.5</v>
@@ -4412,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -4436,7 +4127,7 @@
         <v>2</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="AJ15" s="1">
         <v>35</v>
@@ -4451,73 +4142,58 @@
         <v>1</v>
       </c>
       <c r="AN15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AO15" s="2" t="s">
+      <c r="AP15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BF15" s="7"/>
+      <c r="BG15" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AP15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA15" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BB15" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="BC15" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BF15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BG15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BK15" s="6"/>
-      <c r="BL15" s="6" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:64">
+    <row r="16" ht="57" customHeight="1" spans="1:59">
       <c r="A16" s="2" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4571,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -4589,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB16" s="1">
         <v>0</v>
@@ -4613,7 +4289,7 @@
         <v>2</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="AJ16" s="1">
         <v>35</v>
@@ -4628,70 +4304,55 @@
         <v>1</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>218</v>
+        <v>138</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>219</v>
+        <v>139</v>
+      </c>
+      <c r="AS16" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA16" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BB16" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BC16" s="1">
+        <v>141</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX16" s="1">
         <v>0.2</v>
       </c>
-      <c r="BF16" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG16" s="1">
+      <c r="BA16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB16" s="1">
         <v>0.65</v>
       </c>
-      <c r="BK16" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL16" s="2"/>
+      <c r="BF16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG16" s="2"/>
     </row>
-    <row r="17" ht="57" customHeight="1" spans="1:64">
+    <row r="17" ht="57" customHeight="1" spans="1:59">
       <c r="A17" s="2" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4745,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="V17" s="1">
         <v>4.5</v>
@@ -4763,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
@@ -4787,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="AJ17" s="1">
         <v>35</v>
@@ -4802,73 +4463,58 @@
         <v>1</v>
       </c>
       <c r="AN17" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>218</v>
+        <v>138</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS17" s="1" t="s">
-        <v>219</v>
+        <v>139</v>
+      </c>
+      <c r="AS17" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA17" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BB17" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="BC17" s="1">
+        <v>141</v>
+      </c>
+      <c r="AV17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BF17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG17" s="1">
+      <c r="BA17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BB17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BK17" s="2"/>
-      <c r="BL17" s="2" t="s">
-        <v>184</v>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="18" ht="57" customHeight="1" spans="1:64">
+    <row r="18" ht="57" customHeight="1" spans="1:59">
       <c r="A18" s="2" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4922,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V18" s="1">
         <v>0</v>
@@ -4940,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB18" s="1">
         <v>0</v>
@@ -4964,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="AJ18" s="1">
         <v>25</v>
@@ -4979,64 +4625,49 @@
         <v>1</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS18" s="1" t="s">
-        <v>219</v>
+        <v>139</v>
+      </c>
+      <c r="AS18" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY18" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA18" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BB18" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="BC18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BG18" s="1">
+        <v>140</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW18" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB18" s="1">
         <v>0.8</v>
       </c>
-      <c r="BK18" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BL18" s="2"/>
+      <c r="BF18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG18" s="2"/>
     </row>
-    <row r="19" ht="57" customHeight="1" spans="1:64">
+    <row r="19" ht="57" customHeight="1" spans="1:59">
       <c r="A19" s="2" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -5090,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V19" s="1">
         <v>4</v>
@@ -5108,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB19" s="1">
         <v>0</v>
@@ -5132,7 +4763,7 @@
         <v>2</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="AJ19" s="1">
         <v>25</v>
@@ -5147,67 +4778,52 @@
         <v>1</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="AR19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS19" s="1" t="s">
-        <v>219</v>
+        <v>139</v>
+      </c>
+      <c r="AS19" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA19" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BB19" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="BC19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF19" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BG19" s="1">
+        <v>140</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW19" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB19" s="1">
         <v>0.8</v>
       </c>
-      <c r="BK19" s="2"/>
-      <c r="BL19" s="2" t="s">
-        <v>185</v>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="20" ht="57" customHeight="1" spans="1:64">
+    <row r="20" ht="57" customHeight="1" spans="1:59">
       <c r="A20" s="2" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -5261,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="V20" s="1">
         <v>0</v>
@@ -5279,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB20" s="1">
         <v>0</v>
@@ -5303,7 +4919,7 @@
         <v>2</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="AJ20" s="1">
         <v>25</v>
@@ -5318,57 +4934,42 @@
         <v>1</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AR20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS20" s="1" t="s">
-        <v>219</v>
+        <v>139</v>
+      </c>
+      <c r="AS20" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA20" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BB20" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="BC20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BG20" s="1">
+        <v>140</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW20" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX20" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB20" s="1">
         <v>0.8</v>
       </c>
-      <c r="BK20" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BL20" s="2"/>
+      <c r="BF20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG20" s="2"/>
     </row>
     <row r="21" spans="40:40">
       <c r="AN21" s="2"/>
@@ -5389,7 +4990,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5406,7 +5007,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -1661,11 +1661,11 @@
   <dimension ref="A1:BJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AL10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3654,7 +3654,7 @@
         <v>137</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>177</v>
@@ -3819,7 +3819,7 @@
         <v>137</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>177</v>
@@ -4937,7 +4937,7 @@
         <v>201</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AR20" s="1" t="s">
         <v>139</v>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="25545" windowHeight="13155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1661,67 +1661,67 @@
   <dimension ref="A1:BJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AL10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AL19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO20" sqref="AO20"/>
+      <selection pane="bottomRight" activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.2272727272727" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6818181818182" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1090909090909" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1090909090909" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.2181818181818" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.8909090909091" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1818181818182" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7818181818182" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.0454545454545" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.2181818181818" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.4727272727273" style="1" customWidth="1"/>
-    <col min="14" max="14" width="34.2818181818182" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6454545454545" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6636363636364" style="1" customWidth="1"/>
-    <col min="17" max="18" width="25.0727272727273" style="1" customWidth="1"/>
-    <col min="19" max="19" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.6454545454545" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.8909090909091" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.3363636363636" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.9545454545455" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.1090909090909" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.7818181818182" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.5454545454545" style="1" customWidth="1"/>
-    <col min="28" max="28" width="20.4636363636364" style="1" customWidth="1"/>
-    <col min="29" max="29" width="26.6545454545455" style="1" customWidth="1"/>
-    <col min="30" max="30" width="26.5090909090909" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.2166666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8916666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1833333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7833333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.0416666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.2166666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.475" style="1" customWidth="1"/>
+    <col min="14" max="14" width="34.2833333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6416666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="17" max="18" width="25.075" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.225" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6416666666667" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.8916666666667" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.9583333333333" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23.1083333333333" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.7833333333333" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5416666666667" style="1" customWidth="1"/>
+    <col min="28" max="28" width="20.4666666666667" style="1" customWidth="1"/>
+    <col min="29" max="29" width="26.6583333333333" style="1" customWidth="1"/>
+    <col min="30" max="30" width="26.5083333333333" style="1" customWidth="1"/>
     <col min="31" max="31" width="29.2" style="1" customWidth="1"/>
     <col min="32" max="32" width="30" style="1" customWidth="1"/>
-    <col min="33" max="33" width="34.4090909090909" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7818181818182" style="1" customWidth="1"/>
+    <col min="33" max="33" width="34.4083333333333" style="1" customWidth="1"/>
+    <col min="34" max="34" width="17.7833333333333" style="1" customWidth="1"/>
     <col min="35" max="35" width="20" style="1" customWidth="1"/>
-    <col min="36" max="36" width="30.9818181818182" style="1" customWidth="1"/>
-    <col min="37" max="37" width="22.9636363636364" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.9833333333333" style="1" customWidth="1"/>
+    <col min="37" max="37" width="22.9666666666667" style="1" customWidth="1"/>
     <col min="38" max="38" width="23.7" style="1" customWidth="1"/>
-    <col min="39" max="40" width="27.6454545454545" style="1" customWidth="1"/>
-    <col min="41" max="41" width="27.7818181818182" style="2" customWidth="1"/>
-    <col min="42" max="43" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="44" max="47" width="24.0727272727273" style="1" customWidth="1"/>
-    <col min="48" max="48" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="39" max="40" width="27.6416666666667" style="1" customWidth="1"/>
+    <col min="41" max="41" width="27.7833333333333" style="2" customWidth="1"/>
+    <col min="42" max="43" width="27.7833333333333" style="1" customWidth="1"/>
+    <col min="44" max="47" width="24.075" style="1" customWidth="1"/>
+    <col min="48" max="48" width="21.1083333333333" style="1" customWidth="1"/>
     <col min="49" max="49" width="22.1" style="1" customWidth="1"/>
-    <col min="50" max="50" width="29.7545454545455" style="1" customWidth="1"/>
-    <col min="51" max="51" width="20.1181818181818" style="1" customWidth="1"/>
-    <col min="52" max="52" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="50" max="50" width="29.7583333333333" style="1" customWidth="1"/>
+    <col min="51" max="51" width="20.1166666666667" style="1" customWidth="1"/>
+    <col min="52" max="52" width="25.225" style="1" customWidth="1"/>
     <col min="53" max="53" width="23.7" style="1" customWidth="1"/>
-    <col min="54" max="54" width="37.9272727272727" style="1" customWidth="1"/>
-    <col min="55" max="55" width="22.5909090909091" style="1" customWidth="1"/>
-    <col min="56" max="56" width="30.4636363636364" style="1" customWidth="1"/>
-    <col min="57" max="57" width="31.8545454545455" style="1" customWidth="1"/>
-    <col min="58" max="59" width="32.4636363636364" style="3" customWidth="1"/>
+    <col min="54" max="54" width="37.925" style="1" customWidth="1"/>
+    <col min="55" max="55" width="22.5916666666667" style="1" customWidth="1"/>
+    <col min="56" max="56" width="30.4666666666667" style="1" customWidth="1"/>
+    <col min="57" max="57" width="31.8583333333333" style="1" customWidth="1"/>
+    <col min="58" max="59" width="32.4666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:59">
@@ -4933,8 +4933,8 @@
       <c r="AM20" s="1">
         <v>1</v>
       </c>
-      <c r="AN20" s="2" t="s">
-        <v>201</v>
+      <c r="AN20" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="AO20" s="2" t="s">
         <v>159</v>
@@ -4990,7 +4990,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5007,7 +5007,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="13155"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="213">
   <si>
     <t>Id</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Shell</t>
+  </si>
+  <si>
+    <t>ReloadThrowShell</t>
   </si>
   <si>
     <t>ThrowShellDelayTime</t>
@@ -327,6 +330,10 @@
     <t>默认抛出的弹壳</t>
   </si>
   <si>
+    <t xml:space="preserve">是否在换弹时才抛壳
+</t>
+  </si>
+  <si>
     <t>投抛弹壳的延时时间, 在射击或者上膛后会触发抛弹壳效果
 如果为0, 则不自动抛弹</t>
   </si>
@@ -659,6 +666,9 @@
   </si>
   <si>
     <t>榴弹发射器</t>
+  </si>
+  <si>
+    <t>0018</t>
   </si>
 </sst>
 </file>
@@ -1658,14 +1668,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BJ21"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AL19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="BD16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN20" sqref="AN20"/>
+      <selection pane="bottomRight" activeCell="BH21" sqref="BH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1709,22 +1719,22 @@
     <col min="38" max="38" width="23.7" style="1" customWidth="1"/>
     <col min="39" max="40" width="27.6416666666667" style="1" customWidth="1"/>
     <col min="41" max="41" width="27.7833333333333" style="2" customWidth="1"/>
-    <col min="42" max="43" width="27.7833333333333" style="1" customWidth="1"/>
-    <col min="44" max="47" width="24.075" style="1" customWidth="1"/>
-    <col min="48" max="48" width="21.1083333333333" style="1" customWidth="1"/>
-    <col min="49" max="49" width="22.1" style="1" customWidth="1"/>
-    <col min="50" max="50" width="29.7583333333333" style="1" customWidth="1"/>
-    <col min="51" max="51" width="20.1166666666667" style="1" customWidth="1"/>
-    <col min="52" max="52" width="25.225" style="1" customWidth="1"/>
-    <col min="53" max="53" width="23.7" style="1" customWidth="1"/>
-    <col min="54" max="54" width="37.925" style="1" customWidth="1"/>
-    <col min="55" max="55" width="22.5916666666667" style="1" customWidth="1"/>
-    <col min="56" max="56" width="30.4666666666667" style="1" customWidth="1"/>
-    <col min="57" max="57" width="31.8583333333333" style="1" customWidth="1"/>
-    <col min="58" max="59" width="32.4666666666667" style="3" customWidth="1"/>
+    <col min="42" max="44" width="27.7833333333333" style="1" customWidth="1"/>
+    <col min="45" max="48" width="24.075" style="1" customWidth="1"/>
+    <col min="49" max="49" width="21.1083333333333" style="1" customWidth="1"/>
+    <col min="50" max="50" width="22.1" style="1" customWidth="1"/>
+    <col min="51" max="51" width="29.7583333333333" style="1" customWidth="1"/>
+    <col min="52" max="52" width="20.1166666666667" style="1" customWidth="1"/>
+    <col min="53" max="53" width="25.225" style="1" customWidth="1"/>
+    <col min="54" max="54" width="23.7" style="1" customWidth="1"/>
+    <col min="55" max="55" width="37.925" style="1" customWidth="1"/>
+    <col min="56" max="56" width="22.5916666666667" style="1" customWidth="1"/>
+    <col min="57" max="57" width="30.4666666666667" style="1" customWidth="1"/>
+    <col min="58" max="58" width="31.8583333333333" style="1" customWidth="1"/>
+    <col min="59" max="60" width="32.4666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:59">
+    <row r="1" ht="31" customHeight="1" spans="1:60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1896,383 +1906,392 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="BG1" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="BH1" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:62">
+    <row r="2" ht="114" customHeight="1" spans="1:63">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BH2" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:59">
+    <row r="3" ht="27" customHeight="1" spans="1:60">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="AO3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="AS3" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>124</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:59">
+    <row r="4" ht="57" customHeight="1" spans="1:60">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2326,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
@@ -2344,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -2368,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AJ4" s="1">
         <v>35</v>
@@ -2383,55 +2402,58 @@
         <v>1</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="AQ4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT4" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AU4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AW4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY4" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB4" s="1">
+      <c r="BB4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC4" s="1">
         <v>0.4</v>
       </c>
-      <c r="BF4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="BG4" s="7"/>
+      <c r="BG4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH4" s="7"/>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:59">
+    <row r="5" ht="57" customHeight="1" spans="1:60">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2485,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="V5" s="1">
         <v>3</v>
@@ -2503,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -2527,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AJ5" s="1">
         <v>35</v>
@@ -2542,58 +2564,61 @@
         <v>1</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="AQ5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT5" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AU5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV5" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AW5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY5" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB5" s="1">
+      <c r="BB5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BC5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7" t="s">
-        <v>132</v>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:59">
+    <row r="6" ht="57" customHeight="1" spans="1:60">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2647,7 +2672,7 @@
         <v>0.6</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -2665,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -2689,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ6" s="1">
         <v>35</v>
@@ -2704,67 +2729,70 @@
         <v>1</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ6" s="1">
+        <v>154</v>
+      </c>
+      <c r="AQ6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
         <v>0.2</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>140</v>
+      <c r="AS6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1" t="s">
+      <c r="AX6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BB6" s="1">
+      <c r="AY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC6" s="1">
         <v>0.3</v>
       </c>
-      <c r="BC6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="BG6" s="7"/>
+      <c r="BD6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH6" s="7"/>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:59">
+    <row r="7" ht="57" customHeight="1" spans="1:60">
       <c r="A7" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2818,7 +2846,7 @@
         <v>0.6</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V7" s="1">
         <v>3.5</v>
@@ -2836,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -2860,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ7" s="1">
         <v>35</v>
@@ -2875,70 +2903,73 @@
         <v>1</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ7" s="1">
+        <v>154</v>
+      </c>
+      <c r="AQ7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1">
         <v>0.2</v>
       </c>
-      <c r="AR7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>140</v>
+      <c r="AS7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW7" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="1" t="s">
+      <c r="AX7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BB7" s="1">
+      <c r="AY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BC7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="7"/>
-      <c r="BG7" s="7" t="s">
-        <v>145</v>
+      <c r="BD7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:59">
+    <row r="8" ht="57" customHeight="1" spans="1:60">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -2992,7 +3023,7 @@
         <v>0.05</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
@@ -3010,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -3034,7 +3065,7 @@
         <v>4</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ8" s="1">
         <v>35</v>
@@ -3049,55 +3080,58 @@
         <v>1</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="AQ8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT8" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AU8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BG8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH8" s="7"/>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:60">
+      <c r="A9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BF8" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="BG8" s="7"/>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:59">
-      <c r="A9" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3151,7 +3185,7 @@
         <v>0.05</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V9" s="1">
         <v>1.3</v>
@@ -3169,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -3193,7 +3227,7 @@
         <v>4</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AJ9" s="1">
         <v>35</v>
@@ -3208,58 +3242,61 @@
         <v>1</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="AQ9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT9" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AU9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="BB9" s="1">
+      <c r="AX9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="7" t="s">
-        <v>147</v>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:59">
+    <row r="10" ht="57" customHeight="1" spans="1:60">
       <c r="A10" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3313,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -3331,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
@@ -3355,7 +3392,7 @@
         <v>7</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AJ10" s="1">
         <v>24</v>
@@ -3371,34 +3408,34 @@
       </c>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH10" s="7"/>
+    </row>
+    <row r="11" ht="57" customHeight="1" spans="1:60">
+      <c r="A11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BG10" s="7"/>
-    </row>
-    <row r="11" ht="57" customHeight="1" spans="1:59">
-      <c r="A11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3452,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V11" s="1">
         <v>3</v>
@@ -3470,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB11" s="1">
         <v>0</v>
@@ -3494,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AJ11" s="1">
         <v>24</v>
@@ -3510,37 +3547,37 @@
       </c>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>140</v>
+        <v>173</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:59">
+    <row r="12" ht="57" customHeight="1" spans="1:60">
       <c r="A12" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3594,7 +3631,7 @@
         <v>0.9</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -3612,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
@@ -3636,7 +3673,7 @@
         <v>5</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AJ12" s="1">
         <v>20</v>
@@ -3651,61 +3688,64 @@
         <v>1</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH12" s="7"/>
+    </row>
+    <row r="13" ht="57" customHeight="1" spans="1:60">
+      <c r="A13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW12" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG12" s="7"/>
-    </row>
-    <row r="13" ht="57" customHeight="1" spans="1:59">
-      <c r="A13" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3759,7 +3799,7 @@
         <v>0.9</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V13" s="1">
         <v>5</v>
@@ -3777,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -3801,7 +3841,7 @@
         <v>5</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AJ13" s="1">
         <v>20</v>
@@ -3816,63 +3856,66 @@
         <v>1</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ13" s="1">
+        <v>179</v>
+      </c>
+      <c r="AQ13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="1">
         <v>0.2</v>
       </c>
-      <c r="AR13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>140</v>
+      <c r="AS13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT13" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW13" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="AX13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BB13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="7" t="s">
-        <v>159</v>
+      <c r="AX13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:59">
+    <row r="14" ht="57" customHeight="1" spans="1:60">
       <c r="A14" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -3926,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
@@ -3944,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -3968,7 +4011,7 @@
         <v>2</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AJ14" s="1">
         <v>35</v>
@@ -3983,55 +4026,58 @@
         <v>1</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="AQ14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT14" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AU14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BG14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BH14" s="2"/>
+    </row>
+    <row r="15" ht="57" customHeight="1" spans="1:60">
+      <c r="A15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="AW14" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AX14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BF14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BG14" s="2"/>
-    </row>
-    <row r="15" ht="57" customHeight="1" spans="1:59">
-      <c r="A15" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4085,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="V15" s="1">
         <v>3.5</v>
@@ -4103,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -4127,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AJ15" s="1">
         <v>35</v>
@@ -4142,58 +4188,61 @@
         <v>1</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="AQ15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT15" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AU15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV15" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AW15" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AX15" s="1">
+        <v>142</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY15" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB15" s="1">
+      <c r="BB15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BF15" s="7"/>
-      <c r="BG15" s="7" t="s">
-        <v>158</v>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:59">
+    <row r="16" ht="57" customHeight="1" spans="1:60">
       <c r="A16" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4247,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -4265,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB16" s="1">
         <v>0</v>
@@ -4289,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AJ16" s="1">
         <v>35</v>
@@ -4304,55 +4353,58 @@
         <v>1</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="AQ16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT16" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AU16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV16" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BG16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH16" s="2"/>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:60">
+      <c r="A17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="AX16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BA16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BB16" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="BF16" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="BG16" s="2"/>
-    </row>
-    <row r="17" ht="57" customHeight="1" spans="1:59">
-      <c r="A17" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4406,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V17" s="1">
         <v>4.5</v>
@@ -4424,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
@@ -4448,7 +4500,7 @@
         <v>2</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AJ17" s="1">
         <v>35</v>
@@ -4463,58 +4515,61 @@
         <v>1</v>
       </c>
       <c r="AN17" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="AQ17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT17" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AU17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV17" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW17" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX17" s="1">
+        <v>142</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA17" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BB17" s="1">
+      <c r="BB17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BF17" s="2"/>
-      <c r="BG17" s="2" t="s">
-        <v>166</v>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="18" ht="57" customHeight="1" spans="1:59">
+    <row r="18" ht="57" customHeight="1" spans="1:60">
       <c r="A18" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4568,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V18" s="1">
         <v>0</v>
@@ -4586,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB18" s="1">
         <v>0</v>
@@ -4610,7 +4665,7 @@
         <v>2</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ18" s="1">
         <v>25</v>
@@ -4625,49 +4680,49 @@
         <v>1</v>
       </c>
       <c r="AN18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX18" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BG18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BH18" s="2"/>
+    </row>
+    <row r="19" ht="57" customHeight="1" spans="1:60">
+      <c r="A19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW18" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BF18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="BG18" s="2"/>
-    </row>
-    <row r="19" ht="57" customHeight="1" spans="1:59">
-      <c r="A19" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -4721,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V19" s="1">
         <v>4</v>
@@ -4739,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB19" s="1">
         <v>0</v>
@@ -4763,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ19" s="1">
         <v>25</v>
@@ -4778,52 +4833,52 @@
         <v>1</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>140</v>
+        <v>204</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT19" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV19" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW19" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW19" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="BB19" s="1">
+      <c r="AX19" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BC19" s="1">
         <v>0.8</v>
       </c>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2" t="s">
-        <v>167</v>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="20" ht="57" customHeight="1" spans="1:59">
+    <row r="20" ht="57" customHeight="1" spans="1:60">
       <c r="A20" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -4835,16 +4890,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="I20" s="1">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="K20" s="1" t="b">
         <v>0</v>
@@ -4877,16 +4932,16 @@
         <v>0</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V20" s="1">
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="X20" s="1">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -4895,19 +4950,19 @@
         <v>0</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB20" s="1">
         <v>0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD20" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AE20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF20" s="1">
         <v>40</v>
@@ -4919,60 +4974,196 @@
         <v>2</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ20" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="5"/>
+      <c r="BG20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BH20" s="2"/>
+    </row>
+    <row r="21" ht="57" customHeight="1" spans="1:60">
+      <c r="A21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>50</v>
+      </c>
+      <c r="I21" s="1">
         <v>25</v>
       </c>
-      <c r="AK20" s="1">
-        <v>13</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="4" t="s">
+      <c r="J21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AO20" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR20" s="1" t="s">
+      <c r="V21" s="1">
+        <v>5</v>
+      </c>
+      <c r="W21" s="1">
+        <v>60</v>
+      </c>
+      <c r="X21" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>16</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AS20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="1" t="s">
+      <c r="AO21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AU20" s="1" t="s">
+      <c r="AQ21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AV20" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW20" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX20" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BF20" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="BG20" s="2"/>
-    </row>
-    <row r="21" spans="40:40">
-      <c r="AN21" s="2"/>
+      <c r="AT21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="5"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowWidth="21915" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -330,12 +343,10 @@
     <t>默认抛出的弹壳</t>
   </si>
   <si>
-    <t xml:space="preserve">是否在换弹时才抛壳
-</t>
-  </si>
-  <si>
-    <t>投抛弹壳的延时时间, 在射击或者上膛后会触发抛弹壳效果
-如果为0, 则不自动抛弹</t>
+    <t>是否在换弹时才抛弹壳</t>
+  </si>
+  <si>
+    <t>投抛弹壳的延时时间</t>
   </si>
   <si>
     <t>投抛状态下物体碰撞器大小</t>
@@ -674,7 +685,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1671,11 +1682,11 @@
   <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="BD16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BH21" sqref="BH21"/>
+      <selection pane="bottomRight" activeCell="AS14" sqref="AS14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21915" windowHeight="13485"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="215">
   <si>
     <t>Id</t>
   </si>
@@ -679,13 +666,19 @@
     <t>榴弹发射器</t>
   </si>
   <si>
+    <t>shell0004</t>
+  </si>
+  <si>
+    <t>shooting0011</t>
+  </si>
+  <si>
     <t>0018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1682,11 +1675,11 @@
   <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AN16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS14" sqref="AS14"/>
+      <selection pane="bottomRight" activeCell="AR20" sqref="AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4910,7 +4903,7 @@
         <v>25</v>
       </c>
       <c r="J20" s="1">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K20" s="1" t="b">
         <v>0</v>
@@ -5006,10 +4999,13 @@
         <v>161</v>
       </c>
       <c r="AP20" s="1" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="AQ20" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0.46</v>
       </c>
       <c r="AS20" s="1" t="s">
         <v>141</v>
@@ -5023,16 +5019,18 @@
       <c r="AV20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AW20" s="2"/>
+      <c r="AW20" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="AX20" s="5"/>
       <c r="BG20" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="BH20" s="2"/>
     </row>
     <row r="21" ht="57" customHeight="1" spans="1:60">
       <c r="A21" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>211</v>
@@ -5056,7 +5054,7 @@
         <v>25</v>
       </c>
       <c r="J21" s="1">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K21" s="1" t="b">
         <v>0</v>
@@ -5152,10 +5150,13 @@
         <v>161</v>
       </c>
       <c r="AP21" s="1" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="AQ21" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0.46</v>
       </c>
       <c r="AS21" s="1" t="s">
         <v>141</v>
@@ -5169,7 +5170,9 @@
       <c r="AV21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AW21" s="2"/>
+      <c r="AW21" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="AX21" s="5"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2" t="s">

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="218">
   <si>
     <t>Id</t>
   </si>
@@ -670,6 +670,15 @@
   </si>
   <si>
     <t>shooting0011</t>
+  </si>
+  <si>
+    <t>reloadBegin0012</t>
+  </si>
+  <si>
+    <t>reloading0003</t>
+  </si>
+  <si>
+    <t>reloadFinish0004</t>
   </si>
   <si>
     <t>0018</t>
@@ -1675,11 +1684,11 @@
   <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AN16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AX19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR20" sqref="AR20"/>
+      <selection pane="bottomRight" activeCell="BB21" sqref="BB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5022,15 +5031,32 @@
       <c r="AW20" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AX20" s="5"/>
+      <c r="AX20" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY20" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>0.26</v>
+      </c>
       <c r="BG20" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BH20" s="2"/>
     </row>
     <row r="21" ht="57" customHeight="1" spans="1:60">
       <c r="A21" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>211</v>
@@ -5173,7 +5199,24 @@
       <c r="AW21" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AX21" s="5"/>
+      <c r="AX21" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AZ21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>0.26</v>
+      </c>
       <c r="BG21" s="2"/>
       <c r="BH21" s="2" t="s">
         <v>174</v>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowWidth="21915" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="220">
   <si>
     <t>Id</t>
   </si>
@@ -33,6 +46,9 @@
     <t>WeightType</t>
   </si>
   <si>
+    <t>IsMelee</t>
+  </si>
+  <si>
     <t>ContinuousShoot</t>
   </si>
   <si>
@@ -159,7 +175,7 @@
     <t>MeleeAttackHarmRange</t>
   </si>
   <si>
-    <t>MeleeAttackRepelRnage</t>
+    <t>MeleeAttackRepelRange</t>
   </si>
   <si>
     <t>ShootSound</t>
@@ -216,6 +232,9 @@
 3.重型武器</t>
   </si>
   <si>
+    <t>标记是否是近战武器</t>
+  </si>
+  <si>
     <t>是否连续发射, 如果为false, 则每次发射都需要扣动扳机</t>
   </si>
   <si>
@@ -687,7 +706,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1681,14 +1700,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AX19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BB21" sqref="BB21"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1697,57 +1716,57 @@
     <col min="2" max="2" width="24.6833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.1083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.2166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.8916666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1833333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.0416666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.2166666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.475" style="1" customWidth="1"/>
-    <col min="14" max="14" width="34.2833333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6416666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="17" max="18" width="25.075" style="1" customWidth="1"/>
-    <col min="19" max="19" width="25.225" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.6416666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.8916666666667" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.9583333333333" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.1083333333333" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.7833333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.5416666666667" style="1" customWidth="1"/>
-    <col min="28" max="28" width="20.4666666666667" style="1" customWidth="1"/>
-    <col min="29" max="29" width="26.6583333333333" style="1" customWidth="1"/>
-    <col min="30" max="30" width="26.5083333333333" style="1" customWidth="1"/>
-    <col min="31" max="31" width="29.2" style="1" customWidth="1"/>
-    <col min="32" max="32" width="30" style="1" customWidth="1"/>
-    <col min="33" max="33" width="34.4083333333333" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7833333333333" style="1" customWidth="1"/>
-    <col min="35" max="35" width="20" style="1" customWidth="1"/>
-    <col min="36" max="36" width="30.9833333333333" style="1" customWidth="1"/>
-    <col min="37" max="37" width="22.9666666666667" style="1" customWidth="1"/>
-    <col min="38" max="38" width="23.7" style="1" customWidth="1"/>
-    <col min="39" max="40" width="27.6416666666667" style="1" customWidth="1"/>
-    <col min="41" max="41" width="27.7833333333333" style="2" customWidth="1"/>
-    <col min="42" max="44" width="27.7833333333333" style="1" customWidth="1"/>
-    <col min="45" max="48" width="24.075" style="1" customWidth="1"/>
-    <col min="49" max="49" width="21.1083333333333" style="1" customWidth="1"/>
-    <col min="50" max="50" width="22.1" style="1" customWidth="1"/>
-    <col min="51" max="51" width="29.7583333333333" style="1" customWidth="1"/>
-    <col min="52" max="52" width="20.1166666666667" style="1" customWidth="1"/>
-    <col min="53" max="53" width="25.225" style="1" customWidth="1"/>
-    <col min="54" max="54" width="23.7" style="1" customWidth="1"/>
-    <col min="55" max="55" width="37.925" style="1" customWidth="1"/>
-    <col min="56" max="56" width="22.5916666666667" style="1" customWidth="1"/>
-    <col min="57" max="57" width="30.4666666666667" style="1" customWidth="1"/>
-    <col min="58" max="58" width="31.8583333333333" style="1" customWidth="1"/>
-    <col min="59" max="60" width="32.4666666666667" style="3" customWidth="1"/>
+    <col min="5" max="6" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1083333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.2166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8916666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1833333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7833333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.0416666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.2166666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="33.475" style="1" customWidth="1"/>
+    <col min="15" max="15" width="34.2833333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6416666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="18" max="19" width="25.075" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.225" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.6416666666667" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.8916666666667" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20.9583333333333" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.1083333333333" style="1" customWidth="1"/>
+    <col min="27" max="27" width="23.7833333333333" style="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5416666666667" style="1" customWidth="1"/>
+    <col min="29" max="29" width="20.4666666666667" style="1" customWidth="1"/>
+    <col min="30" max="30" width="26.6583333333333" style="1" customWidth="1"/>
+    <col min="31" max="31" width="26.5083333333333" style="1" customWidth="1"/>
+    <col min="32" max="32" width="29.2" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30" style="1" customWidth="1"/>
+    <col min="34" max="34" width="34.4083333333333" style="1" customWidth="1"/>
+    <col min="35" max="35" width="17.7833333333333" style="1" customWidth="1"/>
+    <col min="36" max="36" width="20" style="1" customWidth="1"/>
+    <col min="37" max="37" width="30.9833333333333" style="1" customWidth="1"/>
+    <col min="38" max="38" width="22.9666666666667" style="1" customWidth="1"/>
+    <col min="39" max="39" width="23.7" style="1" customWidth="1"/>
+    <col min="40" max="41" width="27.6416666666667" style="1" customWidth="1"/>
+    <col min="42" max="42" width="27.7833333333333" style="2" customWidth="1"/>
+    <col min="43" max="45" width="27.7833333333333" style="1" customWidth="1"/>
+    <col min="46" max="49" width="24.075" style="1" customWidth="1"/>
+    <col min="50" max="50" width="21.1083333333333" style="1" customWidth="1"/>
+    <col min="51" max="51" width="22.1" style="1" customWidth="1"/>
+    <col min="52" max="52" width="29.7583333333333" style="1" customWidth="1"/>
+    <col min="53" max="53" width="20.1166666666667" style="1" customWidth="1"/>
+    <col min="54" max="54" width="25.225" style="1" customWidth="1"/>
+    <col min="55" max="55" width="23.7" style="1" customWidth="1"/>
+    <col min="56" max="56" width="37.925" style="1" customWidth="1"/>
+    <col min="57" max="57" width="22.5916666666667" style="1" customWidth="1"/>
+    <col min="58" max="58" width="30.4666666666667" style="1" customWidth="1"/>
+    <col min="59" max="59" width="31.8583333333333" style="1" customWidth="1"/>
+    <col min="60" max="61" width="32.4666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:60">
+    <row r="1" ht="31" customHeight="1" spans="1:61">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,10 +1887,10 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
@@ -1922,389 +1941,398 @@
       <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="BH1" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="BI1" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:63">
+    <row r="2" ht="114" customHeight="1" spans="1:64">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="AP2" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="AQ2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI2" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="BJ2" s="6"/>
       <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:60">
+    <row r="3" ht="27" customHeight="1" spans="1:61">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>124</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>124</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>124</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AP3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AR3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="AT3" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>126</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:60">
+    <row r="4" ht="57" customHeight="1" spans="1:61">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2313,160 +2341,163 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>30</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>420</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>390</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>2.2</v>
       </c>
-      <c r="K4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="1" t="b">
+      <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1" t="b">
+      <c r="Q4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
         <v>0</v>
       </c>
       <c r="S4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
+      <c r="T4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="W4" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
         <v>480</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0</v>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
         <v>5</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
         <v>45</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>3</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>40</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>2</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI4" s="7"/>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:61">
+      <c r="A5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BG4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH4" s="7"/>
-    </row>
-    <row r="5" ht="57" customHeight="1" spans="1:60">
-      <c r="A5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2477,161 +2508,164 @@
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>30</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>420</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>390</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>2.2</v>
       </c>
-      <c r="K5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="1" t="b">
+      <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="b">
+      <c r="Q5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
         <v>0</v>
       </c>
       <c r="S5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="V5" s="1">
+      <c r="T5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="W5" s="1">
         <v>3</v>
-      </c>
-      <c r="W5" s="1">
-        <v>480</v>
       </c>
       <c r="X5" s="1">
         <v>480</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
         <v>5</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE5" s="1">
         <v>45</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <v>3</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <v>40</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>2</v>
       </c>
-      <c r="AI5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK5" s="1">
         <v>35</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL5" s="1">
         <v>10</v>
       </c>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
       <c r="AM5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>139</v>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AT5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AP5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="AR5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU5" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AV5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AY5" s="1">
+      <c r="AX5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ5" s="1">
         <v>0.2</v>
       </c>
-      <c r="BB5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC5" s="1">
+      <c r="BC5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7" t="s">
-        <v>134</v>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:60">
+    <row r="6" ht="57" customHeight="1" spans="1:61">
       <c r="A6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2642,170 +2676,173 @@
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>7</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>140</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>133</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.4</v>
       </c>
-      <c r="K6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="L6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N6" s="1">
         <v>0.6</v>
       </c>
-      <c r="O6" s="1" t="b">
-        <v>1</v>
+      <c r="O6" s="1">
+        <v>0.6</v>
       </c>
       <c r="P6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
         <v>0.6</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
+      <c r="V6" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="W6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
         <v>120</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
         <v>12</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>30</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>20</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>40</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <v>4</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI6" s="7"/>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:61">
+      <c r="A7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>15</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AQ6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH6" s="7"/>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:60">
-      <c r="A7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2816,173 +2853,176 @@
       <c r="F7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>7</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>140</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>133</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.4</v>
       </c>
-      <c r="K7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="L7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1">
         <v>0.6</v>
       </c>
-      <c r="O7" s="1" t="b">
-        <v>1</v>
+      <c r="O7" s="1">
+        <v>0.6</v>
       </c>
       <c r="P7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
         <v>0.6</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V7" s="1">
+      <c r="V7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W7" s="1">
         <v>3.5</v>
-      </c>
-      <c r="W7" s="1">
-        <v>120</v>
       </c>
       <c r="X7" s="1">
         <v>120</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Z7" s="1">
         <v>0</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
         <v>12</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AE7" s="1">
         <v>30</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>20</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AG7" s="1">
         <v>40</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AI7" s="1">
         <v>4</v>
       </c>
-      <c r="AI7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK7" s="1">
         <v>35</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AL7" s="1">
         <v>15</v>
       </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
       <c r="AM7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>139</v>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>1</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AQ7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="1">
+        <v>141</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
         <v>0.2</v>
       </c>
-      <c r="AS7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>142</v>
+      <c r="AT7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="BA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1" t="s">
+      <c r="AY7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BC7" s="1">
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BD7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="7"/>
-      <c r="BH7" s="7" t="s">
-        <v>147</v>
+      <c r="BE7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="7"/>
+      <c r="BI7" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:60">
+    <row r="8" ht="57" customHeight="1" spans="1:61">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -2993,158 +3033,161 @@
       <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
         <v>12</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>180</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>168</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>1.5</v>
       </c>
-      <c r="K8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="1" t="b">
+      <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="b">
+      <c r="Q8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
         <v>0</v>
       </c>
       <c r="S8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
         <v>0.05</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
+      <c r="V8" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="W8" s="1">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>460</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
         <v>5</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AE8" s="1">
         <v>25</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <v>4</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AG8" s="1">
         <v>40</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AI8" s="1">
         <v>4</v>
       </c>
-      <c r="AI8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK8" s="1">
         <v>35</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AL8" s="1">
         <v>20</v>
       </c>
-      <c r="AL8" s="1">
-        <v>0</v>
-      </c>
       <c r="AM8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>139</v>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>1</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AT8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AP8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="AR8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU8" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AV8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BH8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI8" s="7"/>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:61">
+      <c r="A9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BG8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="BH8" s="7"/>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:60">
-      <c r="A9" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3155,161 +3198,164 @@
       <c r="F9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <v>12</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>180</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>168</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>1.5</v>
       </c>
-      <c r="K9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
+      <c r="L9" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="1" t="b">
+      <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="b">
+      <c r="Q9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
         <v>0</v>
       </c>
       <c r="S9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
         <v>0.05</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V9" s="1">
+      <c r="V9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W9" s="1">
         <v>1.3</v>
-      </c>
-      <c r="W9" s="1">
-        <v>300</v>
       </c>
       <c r="X9" s="1">
         <v>300</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z9" s="1">
         <v>0</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
         <v>5</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>25</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <v>4</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="1">
         <v>40</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <v>4</v>
       </c>
-      <c r="AI9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK9" s="1">
         <v>35</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AL9" s="1">
         <v>20</v>
       </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
       <c r="AM9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>139</v>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>1</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AT9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="1" t="s">
+      <c r="AP9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="AR9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU9" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AV9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX9" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="BC9" s="1">
+      <c r="AY9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BG9" s="7"/>
-      <c r="BH9" s="7" t="s">
-        <v>149</v>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:60">
+    <row r="10" ht="57" customHeight="1" spans="1:61">
       <c r="A10" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3318,10 +3364,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>180</v>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <v>180</v>
@@ -3330,61 +3376,61 @@
         <v>180</v>
       </c>
       <c r="J10" s="1">
+        <v>180</v>
+      </c>
+      <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
+      <c r="L10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
-      <c r="O10" s="1" t="b">
+      <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
         <v>0</v>
       </c>
       <c r="S10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0</v>
+      <c r="T10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="W10" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
         <v>180</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="Z10" s="1">
         <v>0</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC10" s="1">
         <v>0</v>
@@ -3402,53 +3448,56 @@
         <v>0</v>
       </c>
       <c r="AH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
         <v>7</v>
       </c>
-      <c r="AI10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK10" s="1">
         <v>24</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AL10" s="1">
         <v>-95</v>
       </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
       <c r="AM10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="BI10" s="7"/>
+    </row>
+    <row r="11" ht="57" customHeight="1" spans="1:61">
+      <c r="A11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BG10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="BH10" s="7"/>
-    </row>
-    <row r="11" ht="57" customHeight="1" spans="1:60">
-      <c r="A11" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3457,10 +3506,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>180</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>180</v>
@@ -3469,61 +3518,61 @@
         <v>180</v>
       </c>
       <c r="J11" s="1">
+        <v>180</v>
+      </c>
+      <c r="K11" s="1">
         <v>2</v>
       </c>
-      <c r="K11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
+      <c r="L11" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
-      <c r="O11" s="1" t="b">
+      <c r="O11" s="1">
         <v>0</v>
       </c>
       <c r="P11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
         <v>0</v>
       </c>
       <c r="S11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V11" s="1">
+      <c r="T11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W11" s="1">
         <v>3</v>
-      </c>
-      <c r="W11" s="1">
-        <v>180</v>
       </c>
       <c r="X11" s="1">
         <v>180</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
       </c>
-      <c r="AA11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC11" s="1">
         <v>0</v>
@@ -3541,56 +3590,59 @@
         <v>0</v>
       </c>
       <c r="AH11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1">
         <v>7</v>
       </c>
-      <c r="AI11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK11" s="1">
         <v>24</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AL11" s="1">
         <v>-95</v>
       </c>
-      <c r="AL11" s="1">
-        <v>0</v>
-      </c>
       <c r="AM11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>142</v>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BG11" s="7"/>
-      <c r="BH11" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:60">
+    <row r="12" ht="57" customHeight="1" spans="1:61">
       <c r="A12" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3601,164 +3653,167 @@
       <c r="F12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>80</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>70</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
+      <c r="L12" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="1" t="b">
+      <c r="O12" s="1">
         <v>0</v>
       </c>
       <c r="P12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1" t="b">
-        <v>1</v>
+      <c r="Q12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
         <v>0.9</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
+      <c r="V12" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="W12" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
         <v>150</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0</v>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
         <v>3</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AE12" s="1">
         <v>60</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>40</v>
       </c>
       <c r="AF12" s="1">
         <v>40</v>
       </c>
       <c r="AG12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AH12" s="1">
         <v>0.8</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AI12" s="1">
         <v>5</v>
       </c>
-      <c r="AI12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK12" s="1">
         <v>20</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AL12" s="1">
         <v>15</v>
       </c>
-      <c r="AL12" s="1">
-        <v>0</v>
-      </c>
       <c r="AM12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="2" t="s">
-        <v>139</v>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>1</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY12" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI12" s="7"/>
+    </row>
+    <row r="13" ht="57" customHeight="1" spans="1:61">
+      <c r="A13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="AQ12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AX12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BC12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="BH12" s="7"/>
-    </row>
-    <row r="13" ht="57" customHeight="1" spans="1:60">
-      <c r="A13" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3769,166 +3824,169 @@
       <c r="F13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>10</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>80</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>70</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
+      <c r="L13" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
-      <c r="O13" s="1" t="b">
+      <c r="O13" s="1">
         <v>0</v>
       </c>
       <c r="P13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1" t="b">
-        <v>1</v>
+      <c r="Q13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
         <v>0.9</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V13" s="1">
+      <c r="V13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W13" s="1">
         <v>5</v>
-      </c>
-      <c r="W13" s="1">
-        <v>150</v>
       </c>
       <c r="X13" s="1">
         <v>150</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Z13" s="1">
         <v>0</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="1">
         <v>3</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AE13" s="1">
         <v>60</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>40</v>
       </c>
       <c r="AF13" s="1">
         <v>40</v>
       </c>
       <c r="AG13" s="1">
+        <v>40</v>
+      </c>
+      <c r="AH13" s="1">
         <v>0.8</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AI13" s="1">
         <v>5</v>
       </c>
-      <c r="AI13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK13" s="1">
         <v>20</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AL13" s="1">
         <v>15</v>
       </c>
-      <c r="AL13" s="1">
-        <v>0</v>
-      </c>
       <c r="AM13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="1">
         <v>0.2</v>
       </c>
-      <c r="AS13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="1" t="s">
-        <v>142</v>
+      <c r="AT13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU13" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AX13" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BC13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="7" t="s">
-        <v>161</v>
+      <c r="AY13" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:60">
+    <row r="14" ht="57" customHeight="1" spans="1:61">
       <c r="A14" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -3937,160 +3995,163 @@
         <v>2</v>
       </c>
       <c r="F14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
         <v>20</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>600</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>580</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>2.2</v>
       </c>
-      <c r="K14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
+      <c r="L14" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="1" t="b">
+      <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1" t="b">
+      <c r="Q14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
         <v>0</v>
       </c>
       <c r="S14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0</v>
+      <c r="T14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="W14" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
         <v>700</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Z14" s="1">
         <v>0</v>
       </c>
-      <c r="AA14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0</v>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
         <v>3</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AE14" s="1">
         <v>30</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AF14" s="1">
         <v>2</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <v>40</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <v>2</v>
       </c>
-      <c r="AI14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ14" s="1">
+      <c r="AJ14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK14" s="1">
         <v>35</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AL14" s="1">
         <v>5</v>
       </c>
-      <c r="AL14" s="1">
-        <v>0</v>
-      </c>
       <c r="AM14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AT14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="1" t="s">
+      <c r="AP14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="AR14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU14" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AV14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY14" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BC14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BH14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI14" s="2"/>
+    </row>
+    <row r="15" ht="57" customHeight="1" spans="1:61">
+      <c r="A15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="AX14" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AY14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BB14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BG14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="BH14" s="2"/>
-    </row>
-    <row r="15" ht="57" customHeight="1" spans="1:60">
-      <c r="A15" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4101,161 +4162,164 @@
       <c r="F15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>600</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>580</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>2.2</v>
       </c>
-      <c r="K15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
+      <c r="L15" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="1" t="b">
+      <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1" t="b">
+      <c r="Q15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
         <v>0</v>
       </c>
       <c r="S15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="V15" s="1">
+      <c r="T15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="W15" s="1">
         <v>3.5</v>
-      </c>
-      <c r="W15" s="1">
-        <v>700</v>
       </c>
       <c r="X15" s="1">
         <v>700</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Z15" s="1">
         <v>0</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>0</v>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
         <v>3</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AE15" s="1">
         <v>30</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AF15" s="1">
         <v>2</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <v>30</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <v>2</v>
       </c>
-      <c r="AI15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK15" s="1">
         <v>35</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AL15" s="1">
         <v>5</v>
       </c>
-      <c r="AL15" s="1">
-        <v>0</v>
-      </c>
       <c r="AM15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AT15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="1" t="s">
+      <c r="AP15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="AR15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU15" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AV15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW15" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AX15" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AY15" s="1">
+        <v>144</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY15" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AZ15" s="1">
         <v>0.2</v>
       </c>
-      <c r="BB15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC15" s="1">
+      <c r="BC15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BG15" s="7"/>
-      <c r="BH15" s="7" t="s">
-        <v>160</v>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:60">
+    <row r="16" ht="57" customHeight="1" spans="1:61">
       <c r="A16" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4264,160 +4328,163 @@
         <v>2</v>
       </c>
       <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <v>60</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>600</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>540</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>2.2</v>
       </c>
-      <c r="K16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
+      <c r="L16" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
       </c>
-      <c r="O16" s="1" t="b">
+      <c r="O16" s="1">
         <v>0</v>
       </c>
       <c r="P16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1" t="b">
+      <c r="Q16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
         <v>0</v>
       </c>
       <c r="S16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
+      <c r="T16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="W16" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
         <v>700</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Z16" s="1">
         <v>0</v>
       </c>
-      <c r="AA16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>0</v>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
         <v>6</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AE16" s="1">
         <v>60</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AF16" s="1">
         <v>3</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AG16" s="1">
         <v>50</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AI16" s="1">
         <v>2</v>
       </c>
-      <c r="AI16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ16" s="1">
+      <c r="AJ16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK16" s="1">
         <v>35</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AL16" s="1">
         <v>5</v>
       </c>
-      <c r="AL16" s="1">
-        <v>0</v>
-      </c>
       <c r="AM16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AT16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="1" t="s">
+      <c r="AP16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="AR16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU16" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AV16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW16" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AX16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BH16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BI16" s="2"/>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:61">
+      <c r="A17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="AY16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BB16" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BC16" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="BG16" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH16" s="2"/>
-    </row>
-    <row r="17" ht="57" customHeight="1" spans="1:60">
-      <c r="A17" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4428,161 +4495,164 @@
       <c r="F17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
         <v>60</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>600</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>540</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>2.2</v>
       </c>
-      <c r="K17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
+      <c r="L17" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
-      <c r="O17" s="1" t="b">
+      <c r="O17" s="1">
         <v>0</v>
       </c>
       <c r="P17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1" t="b">
+      <c r="Q17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V17" s="1">
+      <c r="T17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W17" s="1">
         <v>4.5</v>
-      </c>
-      <c r="W17" s="1">
-        <v>200</v>
       </c>
       <c r="X17" s="1">
         <v>200</v>
       </c>
       <c r="Y17" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z17" s="1">
         <v>0</v>
       </c>
-      <c r="AA17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>0</v>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
         <v>10</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AE17" s="1">
         <v>30</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <v>3</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <v>50</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AI17" s="1">
         <v>2</v>
       </c>
-      <c r="AI17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ17" s="1">
+      <c r="AJ17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK17" s="1">
         <v>35</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AL17" s="1">
         <v>5</v>
       </c>
-      <c r="AL17" s="1">
-        <v>0</v>
-      </c>
       <c r="AM17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AT17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="1" t="s">
+      <c r="AP17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="AR17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU17" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AV17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AX17" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AY17" s="1">
+        <v>144</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY17" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AZ17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BB17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BC17" s="1">
+      <c r="BC17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BG17" s="2"/>
-      <c r="BH17" s="2" t="s">
-        <v>168</v>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="18" ht="57" customHeight="1" spans="1:60">
+    <row r="18" ht="57" customHeight="1" spans="1:61">
       <c r="A18" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4593,149 +4663,152 @@
       <c r="F18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
         <v>10</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>240</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>120</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>1.8</v>
       </c>
-      <c r="K18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1</v>
+      <c r="L18" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
       </c>
-      <c r="O18" s="1" t="b">
+      <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1" t="b">
+      <c r="Q18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
         <v>0</v>
       </c>
       <c r="S18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
+      <c r="T18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="W18" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1">
         <v>300</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z18" s="1">
         <v>0</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0</v>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC18" s="1">
         <v>0</v>
       </c>
       <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
         <v>20</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AF18" s="1">
         <v>4</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AG18" s="1">
         <v>40</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AH18" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AI18" s="1">
         <v>2</v>
       </c>
-      <c r="AI18" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ18" s="1">
+      <c r="AJ18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK18" s="1">
         <v>25</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AL18" s="1">
         <v>13</v>
       </c>
-      <c r="AL18" s="1">
-        <v>0</v>
-      </c>
       <c r="AM18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY18" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BH18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI18" s="2"/>
+    </row>
+    <row r="19" ht="57" customHeight="1" spans="1:61">
+      <c r="A19" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW18" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX18" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BG18" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="BH18" s="2"/>
-    </row>
-    <row r="19" ht="57" customHeight="1" spans="1:60">
-      <c r="A19" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -4746,152 +4819,155 @@
       <c r="F19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
         <v>10</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>240</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>120</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>1.8</v>
       </c>
-      <c r="K19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
+      <c r="L19" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
       </c>
-      <c r="O19" s="1" t="b">
+      <c r="O19" s="1">
         <v>0</v>
       </c>
       <c r="P19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1" t="b">
+      <c r="Q19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
         <v>0</v>
       </c>
       <c r="S19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V19" s="1">
+      <c r="T19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W19" s="1">
         <v>4</v>
-      </c>
-      <c r="W19" s="1">
-        <v>300</v>
       </c>
       <c r="X19" s="1">
         <v>300</v>
       </c>
       <c r="Y19" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z19" s="1">
         <v>0</v>
       </c>
-      <c r="AA19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0</v>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC19" s="1">
         <v>0</v>
       </c>
       <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
         <v>20</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AF19" s="1">
         <v>4</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AG19" s="1">
         <v>40</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AH19" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AI19" s="1">
         <v>2</v>
       </c>
-      <c r="AI19" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ19" s="1">
+      <c r="AJ19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK19" s="1">
         <v>25</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AL19" s="1">
         <v>13</v>
       </c>
-      <c r="AL19" s="1">
-        <v>0</v>
-      </c>
       <c r="AM19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="2" t="s">
-        <v>203</v>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>1</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="1" t="s">
-        <v>142</v>
+        <v>205</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU19" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AV19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW19" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX19" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX19" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="BC19" s="1">
+      <c r="AY19" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD19" s="1">
         <v>0.8</v>
       </c>
-      <c r="BG19" s="2"/>
-      <c r="BH19" s="2" t="s">
-        <v>169</v>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="20" ht="57" customHeight="1" spans="1:60">
+    <row r="20" ht="57" customHeight="1" spans="1:61">
       <c r="A20" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -4902,164 +4978,167 @@
       <c r="F20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
+      <c r="G20" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
         <v>50</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>25</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>1.5</v>
       </c>
-      <c r="K20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
+      <c r="L20" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>
-      <c r="O20" s="1" t="b">
+      <c r="O20" s="1">
         <v>0</v>
       </c>
       <c r="P20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1" t="b">
+      <c r="Q20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
         <v>0</v>
       </c>
       <c r="S20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0</v>
+      <c r="T20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="W20" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
         <v>60</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
       </c>
-      <c r="AA20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0</v>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
         <v>3</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AE20" s="1">
         <v>8</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AF20" s="1">
         <v>5</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AG20" s="1">
         <v>40</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AH20" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AI20" s="1">
         <v>2</v>
       </c>
-      <c r="AI20" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ20" s="1">
+      <c r="AJ20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK20" s="1">
         <v>20</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AL20" s="1">
         <v>16</v>
       </c>
-      <c r="AL20" s="1">
-        <v>0</v>
-      </c>
       <c r="AM20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="1">
         <v>3</v>
       </c>
-      <c r="AN20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="1">
+      <c r="AO20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="1">
         <v>0.46</v>
       </c>
-      <c r="AS20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="1" t="s">
-        <v>142</v>
+      <c r="AT20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU20" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY20" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ20" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD20" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="BH20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BI20" s="2"/>
+    </row>
+    <row r="21" ht="57" customHeight="1" spans="1:61">
+      <c r="A21" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="AX20" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AY20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="AZ20" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BB20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BC20" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="BG20" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="BH20" s="2"/>
-    </row>
-    <row r="21" ht="57" customHeight="1" spans="1:60">
-      <c r="A21" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D21" s="1">
         <v>40</v>
@@ -5070,156 +5149,159 @@
       <c r="F21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
+      <c r="G21" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
         <v>50</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>25</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>1.5</v>
       </c>
-      <c r="K21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1</v>
+      <c r="L21" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
       </c>
-      <c r="O21" s="1" t="b">
+      <c r="O21" s="1">
         <v>0</v>
       </c>
       <c r="P21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1" t="b">
+      <c r="Q21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
         <v>0</v>
       </c>
       <c r="S21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V21" s="1">
+      <c r="T21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W21" s="1">
         <v>5</v>
-      </c>
-      <c r="W21" s="1">
-        <v>60</v>
       </c>
       <c r="X21" s="1">
         <v>60</v>
       </c>
       <c r="Y21" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Z21" s="1">
         <v>0</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>0</v>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
         <v>3</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>8</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AF21" s="1">
         <v>5</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AG21" s="1">
         <v>40</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AH21" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AI21" s="1">
         <v>2</v>
       </c>
-      <c r="AI21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ21" s="1">
+      <c r="AJ21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK21" s="1">
         <v>20</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AL21" s="1">
         <v>16</v>
       </c>
-      <c r="AL21" s="1">
-        <v>0</v>
-      </c>
       <c r="AM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
         <v>3</v>
       </c>
-      <c r="AN21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO21" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="1">
+      <c r="AO21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="1">
         <v>0.46</v>
       </c>
-      <c r="AS21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="1" t="s">
-        <v>142</v>
+      <c r="AT21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU21" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW21" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AX21" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AY21" s="1">
+        <v>144</v>
+      </c>
+      <c r="AW21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY21" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ21" s="1">
         <v>0.24</v>
       </c>
-      <c r="AZ21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA21" s="1">
+      <c r="BA21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BB21" s="1">
         <v>0.8</v>
       </c>
-      <c r="BB21" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BC21" s="1">
+      <c r="BC21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BD21" s="1">
         <v>0.26</v>
       </c>
-      <c r="BG21" s="2"/>
-      <c r="BH21" s="2" t="s">
-        <v>174</v>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21915" windowHeight="13485"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -706,7 +693,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1703,11 +1690,11 @@
   <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1690,11 +1690,11 @@
   <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AI13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP4" sqref="AP4"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="21915" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -693,7 +706,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1690,11 +1703,11 @@
   <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AI13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="$A16:$XFD16"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/WeaponBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21915" windowHeight="13485"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,17 +29,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Remark</t>
+  </si>
+  <si>
     <t>Activity</t>
   </si>
   <si>
-    <t>Remark</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -112,6 +112,9 @@
     <t>FiringSpeedBackSpeed</t>
   </si>
   <si>
+    <t>FiringSpeedBackTime</t>
+  </si>
+  <si>
     <t>FireBulletCountRange</t>
   </si>
   <si>
@@ -217,10 +220,10 @@
     <t>武器属性id</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>属性绑定武器的Id，这个id时ActivityBase表Id,如果是Ai使用的数据, 则填空字符串串</t>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
   <si>
     <t>重量</t>
@@ -299,6 +302,9 @@
     <t>松开扳机后射速消散速率</t>
   </si>
   <si>
+    <t>松开扳机后射速消散开始时间, 单位: 秒</t>
+  </si>
+  <si>
     <t>单次开火发射子弹数量区间
 格式为[value]或者[min,max]</t>
   </si>
@@ -454,12 +460,12 @@
     <t>0001</t>
   </si>
   <si>
+    <t>步枪</t>
+  </si>
+  <si>
     <t>weapon0001</t>
   </si>
   <si>
-    <t>步枪</t>
-  </si>
-  <si>
     <t>[1]</t>
   </si>
   <si>
@@ -499,12 +505,12 @@
     <t>0003</t>
   </si>
   <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
     <t>weapon0002</t>
   </si>
   <si>
-    <t>霰弹枪</t>
-  </si>
-  <si>
     <t>[5]</t>
   </si>
   <si>
@@ -535,12 +541,12 @@
     <t>0005</t>
   </si>
   <si>
+    <t>手枪</t>
+  </si>
+  <si>
     <t>weapon0003</t>
   </si>
   <si>
-    <t>手枪</t>
-  </si>
-  <si>
     <t>[3,5]</t>
   </si>
   <si>
@@ -559,12 +565,12 @@
     <t>0007</t>
   </si>
   <si>
+    <t>刀</t>
+  </si>
+  <si>
     <t>weapon0004</t>
   </si>
   <si>
-    <t>刀</t>
-  </si>
-  <si>
     <t>[-8]</t>
   </si>
   <si>
@@ -577,12 +583,12 @@
     <t>0009</t>
   </si>
   <si>
+    <t>狙击枪</t>
+  </si>
+  <si>
     <t>weapon0005</t>
   </si>
   <si>
-    <t>狙击枪</t>
-  </si>
-  <si>
     <t>[5,7]</t>
   </si>
   <si>
@@ -604,12 +610,12 @@
     <t>0011</t>
   </si>
   <si>
+    <t>冲锋枪</t>
+  </si>
+  <si>
     <t>weapon0006</t>
   </si>
   <si>
-    <t>冲锋枪</t>
-  </si>
-  <si>
     <t>[1,2]</t>
   </si>
   <si>
@@ -628,12 +634,12 @@
     <t>0013</t>
   </si>
   <si>
+    <t>汤姆逊冲锋枪</t>
+  </si>
+  <si>
     <t>weapon0007</t>
   </si>
   <si>
-    <t>汤姆逊冲锋枪</t>
-  </si>
-  <si>
     <t>shooting0007</t>
   </si>
   <si>
@@ -649,12 +655,12 @@
     <t>0015</t>
   </si>
   <si>
+    <t>激光手枪</t>
+  </si>
+  <si>
     <t>weapon0008</t>
   </si>
   <si>
-    <t>激光手枪</t>
-  </si>
-  <si>
     <t>[2,3]</t>
   </si>
   <si>
@@ -679,10 +685,10 @@
     <t>0017</t>
   </si>
   <si>
+    <t>榴弹发射器</t>
+  </si>
+  <si>
     <t>weapon0009</t>
-  </si>
-  <si>
-    <t>榴弹发射器</t>
   </si>
   <si>
     <t>shell0004</t>
@@ -1700,21 +1706,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BL21"/>
+  <dimension ref="A1:BM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="W13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.225" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6833333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.1083333333333" style="1" customWidth="1"/>
     <col min="5" max="6" width="16.6666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.1083333333333" style="1" customWidth="1"/>
@@ -1736,37 +1742,37 @@
     <col min="24" max="24" width="23.3333333333333" style="1" customWidth="1"/>
     <col min="25" max="25" width="20.9583333333333" style="1" customWidth="1"/>
     <col min="26" max="26" width="23.1083333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.7833333333333" style="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5416666666667" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20.4666666666667" style="1" customWidth="1"/>
-    <col min="30" max="30" width="26.6583333333333" style="1" customWidth="1"/>
-    <col min="31" max="31" width="26.5083333333333" style="1" customWidth="1"/>
-    <col min="32" max="32" width="29.2" style="1" customWidth="1"/>
-    <col min="33" max="33" width="30" style="1" customWidth="1"/>
-    <col min="34" max="34" width="34.4083333333333" style="1" customWidth="1"/>
-    <col min="35" max="35" width="17.7833333333333" style="1" customWidth="1"/>
-    <col min="36" max="36" width="20" style="1" customWidth="1"/>
-    <col min="37" max="37" width="30.9833333333333" style="1" customWidth="1"/>
-    <col min="38" max="38" width="22.9666666666667" style="1" customWidth="1"/>
-    <col min="39" max="39" width="23.7" style="1" customWidth="1"/>
-    <col min="40" max="41" width="27.6416666666667" style="1" customWidth="1"/>
-    <col min="42" max="42" width="27.7833333333333" style="2" customWidth="1"/>
-    <col min="43" max="45" width="27.7833333333333" style="1" customWidth="1"/>
-    <col min="46" max="49" width="24.075" style="1" customWidth="1"/>
-    <col min="50" max="50" width="21.1083333333333" style="1" customWidth="1"/>
-    <col min="51" max="51" width="22.1" style="1" customWidth="1"/>
-    <col min="52" max="52" width="29.7583333333333" style="1" customWidth="1"/>
-    <col min="53" max="53" width="20.1166666666667" style="1" customWidth="1"/>
-    <col min="54" max="54" width="25.225" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.7" style="1" customWidth="1"/>
-    <col min="56" max="56" width="37.925" style="1" customWidth="1"/>
-    <col min="57" max="57" width="22.5916666666667" style="1" customWidth="1"/>
-    <col min="58" max="58" width="30.4666666666667" style="1" customWidth="1"/>
-    <col min="59" max="59" width="31.8583333333333" style="1" customWidth="1"/>
-    <col min="60" max="61" width="32.4666666666667" style="3" customWidth="1"/>
+    <col min="27" max="28" width="23.7833333333333" style="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5416666666667" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.4666666666667" style="1" customWidth="1"/>
+    <col min="31" max="31" width="26.6583333333333" style="1" customWidth="1"/>
+    <col min="32" max="32" width="26.5083333333333" style="1" customWidth="1"/>
+    <col min="33" max="33" width="29.2" style="1" customWidth="1"/>
+    <col min="34" max="34" width="30" style="1" customWidth="1"/>
+    <col min="35" max="35" width="34.4083333333333" style="1" customWidth="1"/>
+    <col min="36" max="36" width="17.7833333333333" style="1" customWidth="1"/>
+    <col min="37" max="37" width="20" style="1" customWidth="1"/>
+    <col min="38" max="38" width="30.9833333333333" style="1" customWidth="1"/>
+    <col min="39" max="39" width="22.9666666666667" style="1" customWidth="1"/>
+    <col min="40" max="40" width="23.7" style="1" customWidth="1"/>
+    <col min="41" max="42" width="27.6416666666667" style="1" customWidth="1"/>
+    <col min="43" max="43" width="27.7833333333333" style="2" customWidth="1"/>
+    <col min="44" max="46" width="27.7833333333333" style="1" customWidth="1"/>
+    <col min="47" max="50" width="24.075" style="1" customWidth="1"/>
+    <col min="51" max="51" width="21.1083333333333" style="1" customWidth="1"/>
+    <col min="52" max="52" width="22.1" style="1" customWidth="1"/>
+    <col min="53" max="53" width="29.7583333333333" style="1" customWidth="1"/>
+    <col min="54" max="54" width="20.1166666666667" style="1" customWidth="1"/>
+    <col min="55" max="55" width="25.225" style="1" customWidth="1"/>
+    <col min="56" max="56" width="23.7" style="1" customWidth="1"/>
+    <col min="57" max="57" width="37.925" style="1" customWidth="1"/>
+    <col min="58" max="58" width="22.5916666666667" style="1" customWidth="1"/>
+    <col min="59" max="59" width="30.4666666666667" style="1" customWidth="1"/>
+    <col min="60" max="60" width="31.8583333333333" style="1" customWidth="1"/>
+    <col min="61" max="62" width="32.4666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:61">
+    <row r="1" ht="31" customHeight="1" spans="1:62">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1890,10 +1896,10 @@
       <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
@@ -1944,395 +1950,404 @@
       <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BI1" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="BJ1" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:64">
+    <row r="2" ht="114" customHeight="1" spans="1:65">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="AQ2" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="AR2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ2" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="BK2" s="6"/>
       <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:61">
+    <row r="3" ht="27" customHeight="1" spans="1:62">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="AQ3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="AU3" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AV3" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:61">
+    <row r="4" ht="57" customHeight="1" spans="1:62">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2389,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
@@ -2406,98 +2421,101 @@
       <c r="AA4" s="1">
         <v>0</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BI4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="BJ4" s="7"/>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:62">
+      <c r="A5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>45</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>40</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BH4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI4" s="7"/>
-    </row>
-    <row r="5" ht="57" customHeight="1" spans="1:61">
-      <c r="A5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2554,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="W5" s="1">
         <v>3</v>
@@ -2571,101 +2589,104 @@
       <c r="AA5" s="1">
         <v>0</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
         <v>5</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <v>45</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <v>3</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>40</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" s="1">
         <v>2</v>
       </c>
-      <c r="AJ5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL5" s="1">
         <v>35</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>10</v>
       </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
       <c r="AN5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>141</v>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AU5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="1" t="s">
+      <c r="AQ5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR5" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="AS5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV5" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AW5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="AY5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA5" s="1">
         <v>0.2</v>
       </c>
-      <c r="BC5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD5" s="1">
+      <c r="BD5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7" t="s">
-        <v>136</v>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:61">
+    <row r="6" ht="57" customHeight="1" spans="1:62">
       <c r="A6" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2722,7 +2743,7 @@
         <v>0.6</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W6" s="1">
         <v>0</v>
@@ -2739,110 +2760,113 @@
       <c r="AA6" s="1">
         <v>0</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ6" s="7"/>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:62">
+      <c r="A7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>12</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>20</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>40</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>15</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI6" s="7"/>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:61">
-      <c r="A7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2899,7 +2923,7 @@
         <v>0.6</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W7" s="1">
         <v>3.5</v>
@@ -2916,113 +2940,116 @@
       <c r="AA7" s="1">
         <v>0</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
         <v>12</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <v>30</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AG7" s="1">
         <v>20</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <v>40</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AI7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AJ7" s="1">
         <v>4</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL7" s="1">
         <v>35</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AM7" s="1">
         <v>15</v>
       </c>
-      <c r="AM7" s="1">
-        <v>0</v>
-      </c>
       <c r="AN7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>141</v>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>1</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="1">
+        <v>143</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1">
         <v>0.2</v>
       </c>
-      <c r="AT7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>144</v>
+      <c r="AU7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="BB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BD7" s="1">
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BE7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BE7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="7"/>
-      <c r="BI7" s="7" t="s">
-        <v>149</v>
+      <c r="BF7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:61">
+    <row r="8" ht="57" customHeight="1" spans="1:62">
       <c r="A8" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3079,7 +3106,7 @@
         <v>0.05</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -3096,98 +3123,101 @@
       <c r="AA8" s="1">
         <v>0</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
         <v>5</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <v>25</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AG8" s="1">
         <v>4</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <v>40</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AI8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AJ8" s="1">
         <v>4</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BI8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BJ8" s="7"/>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:62">
+      <c r="A9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BH8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI8" s="7"/>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:61">
-      <c r="A9" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3244,7 +3274,7 @@
         <v>0.05</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W9" s="1">
         <v>1.3</v>
@@ -3261,101 +3291,104 @@
       <c r="AA9" s="1">
         <v>0</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0</v>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>5</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <v>25</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="1">
         <v>4</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <v>40</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ9" s="1">
         <v>4</v>
       </c>
-      <c r="AJ9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK9" s="1">
+      <c r="AK9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL9" s="1">
         <v>35</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1">
         <v>20</v>
       </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
       <c r="AN9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>141</v>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>1</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AU9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="1" t="s">
+      <c r="AQ9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR9" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="AS9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV9" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AW9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX9" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="BD9" s="1">
+      <c r="AZ9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="7" t="s">
-        <v>151</v>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:61">
+    <row r="10" ht="57" customHeight="1" spans="1:62">
       <c r="A10" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3412,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W10" s="1">
         <v>0</v>
@@ -3429,11 +3462,11 @@
       <c r="AA10" s="1">
         <v>0</v>
       </c>
-      <c r="AB10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0</v>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD10" s="1">
         <v>0</v>
@@ -3451,53 +3484,56 @@
         <v>0</v>
       </c>
       <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
         <v>7</v>
       </c>
-      <c r="AJ10" s="1" t="s">
+      <c r="AK10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>24</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>-95</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="BJ10" s="7"/>
+    </row>
+    <row r="11" ht="57" customHeight="1" spans="1:62">
+      <c r="A11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>24</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>-95</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BH10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BI10" s="7"/>
-    </row>
-    <row r="11" ht="57" customHeight="1" spans="1:61">
-      <c r="A11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3554,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W11" s="1">
         <v>3</v>
@@ -3571,11 +3607,11 @@
       <c r="AA11" s="1">
         <v>0</v>
       </c>
-      <c r="AB11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>0</v>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD11" s="1">
         <v>0</v>
@@ -3593,56 +3629,59 @@
         <v>0</v>
       </c>
       <c r="AI11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="1">
         <v>7</v>
       </c>
-      <c r="AJ11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AK11" s="1">
+      <c r="AK11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL11" s="1">
         <v>24</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AM11" s="1">
         <v>-95</v>
       </c>
-      <c r="AM11" s="1">
-        <v>0</v>
-      </c>
       <c r="AN11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>144</v>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV11" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:61">
+    <row r="12" ht="57" customHeight="1" spans="1:62">
       <c r="A12" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3699,7 +3738,7 @@
         <v>0.9</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -3716,104 +3755,107 @@
       <c r="AA12" s="1">
         <v>0</v>
       </c>
-      <c r="AB12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>0</v>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
         <v>3</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AF12" s="1">
         <v>60</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>40</v>
       </c>
       <c r="AG12" s="1">
         <v>40</v>
       </c>
       <c r="AH12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI12" s="1">
         <v>0.8</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AJ12" s="1">
         <v>5</v>
       </c>
-      <c r="AJ12" s="1" t="s">
+      <c r="AK12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>20</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>15</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ12" s="7"/>
+    </row>
+    <row r="13" ht="57" customHeight="1" spans="1:62">
+      <c r="A13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>20</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>15</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AY12" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="BI12" s="7"/>
-    </row>
-    <row r="13" ht="57" customHeight="1" spans="1:61">
-      <c r="A13" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3870,7 +3912,7 @@
         <v>0.9</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W13" s="1">
         <v>5</v>
@@ -3887,106 +3929,109 @@
       <c r="AA13" s="1">
         <v>0</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0</v>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
         <v>3</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AF13" s="1">
         <v>60</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>40</v>
       </c>
       <c r="AG13" s="1">
         <v>40</v>
       </c>
       <c r="AH13" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI13" s="1">
         <v>0.8</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AJ13" s="1">
         <v>5</v>
       </c>
-      <c r="AJ13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AK13" s="1">
+      <c r="AK13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL13" s="1">
         <v>20</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AM13" s="1">
         <v>15</v>
       </c>
-      <c r="AM13" s="1">
-        <v>0</v>
-      </c>
       <c r="AN13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
         <v>0.2</v>
       </c>
-      <c r="AT13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="1" t="s">
-        <v>144</v>
+      <c r="AU13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV13" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AY13" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY13" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BD13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="7" t="s">
-        <v>163</v>
+      <c r="AZ13" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:61">
+    <row r="14" ht="57" customHeight="1" spans="1:62">
       <c r="A14" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4043,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -4060,98 +4105,101 @@
       <c r="AA14" s="1">
         <v>0</v>
       </c>
-      <c r="AB14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>0</v>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <v>3</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AF14" s="1">
         <v>30</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <v>2</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <v>40</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <v>0.3</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AJ14" s="1">
         <v>2</v>
       </c>
-      <c r="AJ14" s="1" t="s">
+      <c r="AK14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BD14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BI14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BJ14" s="2"/>
+    </row>
+    <row r="15" ht="57" customHeight="1" spans="1:62">
+      <c r="A15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX14" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY14" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="AZ14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BC14" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BD14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BH14" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BI14" s="2"/>
-    </row>
-    <row r="15" ht="57" customHeight="1" spans="1:61">
-      <c r="A15" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4208,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="W15" s="1">
         <v>3.5</v>
@@ -4225,101 +4273,104 @@
       <c r="AA15" s="1">
         <v>0</v>
       </c>
-      <c r="AB15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>0</v>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
         <v>3</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AF15" s="1">
         <v>30</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <v>2</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <v>30</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <v>0.3</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AJ15" s="1">
         <v>2</v>
       </c>
-      <c r="AJ15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK15" s="1">
+      <c r="AK15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL15" s="1">
         <v>35</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <v>5</v>
       </c>
-      <c r="AM15" s="1">
-        <v>0</v>
-      </c>
       <c r="AN15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AU15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV15" s="1" t="s">
+      <c r="AQ15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR15" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="AS15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV15" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AW15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY15" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="AZ15" s="1">
+        <v>146</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA15" s="1">
         <v>0.2</v>
       </c>
-      <c r="BC15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BD15" s="1">
+      <c r="BD15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BH15" s="7"/>
-      <c r="BI15" s="7" t="s">
-        <v>162</v>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:61">
+    <row r="16" ht="57" customHeight="1" spans="1:62">
       <c r="A16" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4376,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
@@ -4393,98 +4444,101 @@
       <c r="AA16" s="1">
         <v>0</v>
       </c>
-      <c r="AB16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>0</v>
+      <c r="AB16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
         <v>6</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AF16" s="1">
         <v>60</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AG16" s="1">
         <v>3</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <v>50</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AI16" s="1">
         <v>0.3</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AJ16" s="1">
         <v>2</v>
       </c>
-      <c r="AJ16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK16" s="1">
+      <c r="AK16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL16" s="1">
         <v>35</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AM16" s="1">
         <v>5</v>
       </c>
-      <c r="AM16" s="1">
-        <v>0</v>
-      </c>
       <c r="AN16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AU16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="1" t="s">
+      <c r="AQ16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR16" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="AS16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV16" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AW16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ16" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BI16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ16" s="2"/>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:62">
+      <c r="A17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="AY16" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AZ16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BC16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD16" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="BH16" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="BI16" s="2"/>
-    </row>
-    <row r="17" ht="57" customHeight="1" spans="1:61">
-      <c r="A17" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4541,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="W17" s="1">
         <v>4.5</v>
@@ -4558,101 +4612,104 @@
       <c r="AA17" s="1">
         <v>0</v>
       </c>
-      <c r="AB17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>0</v>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
         <v>10</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <v>30</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <v>3</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <v>50</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AI17" s="1">
         <v>0.3</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AJ17" s="1">
         <v>2</v>
       </c>
-      <c r="AJ17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK17" s="1">
+      <c r="AK17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL17" s="1">
         <v>35</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AM17" s="1">
         <v>5</v>
       </c>
-      <c r="AM17" s="1">
-        <v>0</v>
-      </c>
       <c r="AN17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AU17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="1" t="s">
+      <c r="AQ17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR17" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="AS17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV17" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="AW17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX17" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AY17" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AZ17" s="1">
+        <v>146</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ17" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BC17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD17" s="1">
+      <c r="BD17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BH17" s="2"/>
-      <c r="BI17" s="2" t="s">
-        <v>170</v>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="18" ht="57" customHeight="1" spans="1:61">
+    <row r="18" ht="57" customHeight="1" spans="1:62">
       <c r="A18" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -4709,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -4726,89 +4783,92 @@
       <c r="AA18" s="1">
         <v>0</v>
       </c>
-      <c r="AB18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>0</v>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD18" s="1">
         <v>0</v>
       </c>
       <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="1">
         <v>20</v>
       </c>
-      <c r="AF18" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>40</v>
-      </c>
-      <c r="AH18" s="1">
+      <c r="AI18" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AJ18" s="1">
         <v>2</v>
       </c>
-      <c r="AJ18" s="1" t="s">
+      <c r="AK18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ18" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BI18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ18" s="2"/>
+    </row>
+    <row r="19" ht="57" customHeight="1" spans="1:62">
+      <c r="A19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>25</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>13</v>
-      </c>
-      <c r="AM18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX18" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY18" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AZ18" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BD18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BH18" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI18" s="2"/>
-    </row>
-    <row r="19" ht="57" customHeight="1" spans="1:61">
-      <c r="A19" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -4865,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W19" s="1">
         <v>4</v>
@@ -4882,92 +4942,95 @@
       <c r="AA19" s="1">
         <v>0</v>
       </c>
-      <c r="AB19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>0</v>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD19" s="1">
         <v>0</v>
       </c>
       <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH19" s="1">
         <v>20</v>
       </c>
-      <c r="AF19" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>40</v>
-      </c>
-      <c r="AH19" s="1">
+      <c r="AI19" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AJ19" s="1">
         <v>2</v>
       </c>
-      <c r="AJ19" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK19" s="1">
+      <c r="AK19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL19" s="1">
         <v>25</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AM19" s="1">
         <v>13</v>
       </c>
-      <c r="AM19" s="1">
-        <v>0</v>
-      </c>
       <c r="AN19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="2" t="s">
-        <v>205</v>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>1</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="1" t="s">
-        <v>144</v>
+        <v>207</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV19" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX19" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY19" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AZ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY19" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BD19" s="1">
+      <c r="AZ19" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE19" s="1">
         <v>0.8</v>
       </c>
-      <c r="BH19" s="2"/>
-      <c r="BI19" s="2" t="s">
-        <v>171</v>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="20" ht="57" customHeight="1" spans="1:61">
+    <row r="20" ht="57" customHeight="1" spans="1:62">
       <c r="A20" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D20" s="1">
         <v>40</v>
@@ -5024,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -5041,104 +5104,107 @@
       <c r="AA20" s="1">
         <v>0</v>
       </c>
-      <c r="AB20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>0</v>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
         <v>3</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AF20" s="1">
         <v>8</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AG20" s="1">
         <v>5</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AH20" s="1">
         <v>40</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AI20" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AJ20" s="1">
         <v>2</v>
       </c>
-      <c r="AJ20" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK20" s="1">
+      <c r="AK20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL20" s="1">
         <v>20</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AM20" s="1">
         <v>16</v>
       </c>
-      <c r="AM20" s="1">
-        <v>0</v>
-      </c>
       <c r="AN20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="1">
         <v>3</v>
       </c>
-      <c r="AO20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP20" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
+      <c r="AP20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ20" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA20" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="BI20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BJ20" s="2"/>
+    </row>
+    <row r="21" ht="57" customHeight="1" spans="1:62">
+      <c r="A21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="AR20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS20" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX20" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AY20" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AZ20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="BA20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BB20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BD20" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="BH20" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="BI20" s="2"/>
-    </row>
-    <row r="21" ht="57" customHeight="1" spans="1:61">
-      <c r="A21" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D21" s="1">
         <v>40</v>
@@ -5195,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="W21" s="1">
         <v>5</v>
@@ -5212,96 +5278,99 @@
       <c r="AA21" s="1">
         <v>0</v>
       </c>
-      <c r="AB21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>0</v>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
         <v>3</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AF21" s="1">
         <v>8</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AG21" s="1">
         <v>5</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AH21" s="1">
         <v>40</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AI21" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AJ21" s="1">
         <v>2</v>
       </c>
-      <c r="AJ21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK21" s="1">
+      <c r="AK21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL21" s="1">
         <v>20</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AM21" s="1">
         <v>16</v>
       </c>
-      <c r="AM21" s="1">
-        <v>0</v>
-      </c>
       <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
         <v>3</v>
       </c>
-      <c r="AO21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AR21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AS21" s="1">
+      <c r="AP21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="1">
         <v>0.46</v>
       </c>
-      <c r="AT21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV21" s="1" t="s">
-        <v>144</v>
+      <c r="AU21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV21" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX21" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AY21" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AZ21" s="1">
+        <v>146</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ21" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA21" s="1">
         <v>0.24</v>
       </c>
-      <c r="BA21" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="BB21" s="1">
+      <c r="BB21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BC21" s="1">
         <v>0.8</v>
       </c>
-      <c r="BC21" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="BD21" s="1">
+      <c r="BD21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BE21" s="1">
         <v>0.26</v>
       </c>
-      <c r="BH21" s="2"/>
-      <c r="BI21" s="2" t="s">
-        <v>176</v>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
